--- a/models/calculation engines/economic_overlay/outputs/choosen_mine/Costs_RMBtAA.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/choosen_mine/Costs_RMBtAA.xlsx
@@ -561,67 +561,67 @@
         <v>10.43234379142625</v>
       </c>
       <c r="C2" t="n">
-        <v>1204.686695752962</v>
+        <v>1204.686886564544</v>
       </c>
       <c r="D2" t="n">
-        <v>1312.403920250045</v>
+        <v>1312.404173630905</v>
       </c>
       <c r="E2" t="n">
-        <v>1448.013565305418</v>
+        <v>1448.013898916723</v>
       </c>
       <c r="F2" t="n">
-        <v>1578.227385561408</v>
+        <v>1578.227649001584</v>
       </c>
       <c r="G2" t="n">
-        <v>1626.599516902513</v>
+        <v>1626.599814908646</v>
       </c>
       <c r="H2" t="n">
-        <v>1674.971648243618</v>
+        <v>1674.971980815707</v>
       </c>
       <c r="I2" t="n">
-        <v>1723.34377962987</v>
+        <v>1723.344146767915</v>
       </c>
       <c r="J2" t="n">
-        <v>1771.715911016123</v>
+        <v>1771.716312720124</v>
       </c>
       <c r="K2" t="n">
-        <v>1820.088042357228</v>
+        <v>1820.088478627185</v>
       </c>
       <c r="L2" t="n">
-        <v>1852.342950966696</v>
+        <v>1852.343406824028</v>
       </c>
       <c r="M2" t="n">
-        <v>1384.686695752962</v>
+        <v>1384.686886564544</v>
       </c>
       <c r="N2" t="n">
-        <v>1492.403920250045</v>
+        <v>1492.404173630905</v>
       </c>
       <c r="O2" t="n">
-        <v>1628.013565305418</v>
+        <v>1628.013898916723</v>
       </c>
       <c r="P2" t="n">
-        <v>1758.227385561408</v>
+        <v>1758.227649001584</v>
       </c>
       <c r="Q2" t="n">
-        <v>1806.599516902513</v>
+        <v>1806.599814908646</v>
       </c>
       <c r="R2" t="n">
-        <v>1854.971648243618</v>
+        <v>1854.971980815707</v>
       </c>
       <c r="S2" t="n">
-        <v>1903.34377962987</v>
+        <v>1903.344146767915</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.715911016123</v>
+        <v>1951.716312720124</v>
       </c>
       <c r="U2" t="n">
-        <v>2000.088042357228</v>
+        <v>2000.088478627185</v>
       </c>
       <c r="V2" t="n">
-        <v>2032.342950966696</v>
+        <v>2032.343406824028</v>
       </c>
       <c r="W2" t="n">
-        <v>1346.967786100817</v>
+        <v>1346.967997160124</v>
       </c>
     </row>
     <row r="3">
@@ -634,67 +634,67 @@
         <v>9.811795113809215</v>
       </c>
       <c r="C3" t="n">
-        <v>1225.474506868398</v>
+        <v>1225.474706427265</v>
       </c>
       <c r="D3" t="n">
-        <v>1336.371431099846</v>
+        <v>1336.37169507497</v>
       </c>
       <c r="E3" t="n">
-        <v>1475.984130953307</v>
+        <v>1475.984477527195</v>
       </c>
       <c r="F3" t="n">
-        <v>1610.041726906374</v>
+        <v>1610.042001237756</v>
       </c>
       <c r="G3" t="n">
-        <v>1659.841752940218</v>
+        <v>1659.842062857907</v>
       </c>
       <c r="H3" t="n">
-        <v>1709.641778974062</v>
+        <v>1709.642124478058</v>
       </c>
       <c r="I3" t="n">
-        <v>1759.441805054386</v>
+        <v>1759.442186144689</v>
       </c>
       <c r="J3" t="n">
-        <v>1809.24183113471</v>
+        <v>1809.24224781132</v>
       </c>
       <c r="K3" t="n">
-        <v>1859.041857168554</v>
+        <v>1859.042309431471</v>
       </c>
       <c r="L3" t="n">
-        <v>1892.248896923401</v>
+        <v>1892.249369351892</v>
       </c>
       <c r="M3" t="n">
-        <v>1405.474506868398</v>
+        <v>1405.474706427265</v>
       </c>
       <c r="N3" t="n">
-        <v>1516.371431099846</v>
+        <v>1516.37169507497</v>
       </c>
       <c r="O3" t="n">
-        <v>1655.984130953307</v>
+        <v>1655.984477527195</v>
       </c>
       <c r="P3" t="n">
-        <v>1790.041726906374</v>
+        <v>1790.042001237756</v>
       </c>
       <c r="Q3" t="n">
-        <v>1839.841752940218</v>
+        <v>1839.842062857907</v>
       </c>
       <c r="R3" t="n">
-        <v>1889.641778974062</v>
+        <v>1889.642124478058</v>
       </c>
       <c r="S3" t="n">
-        <v>1939.441805054386</v>
+        <v>1939.442186144689</v>
       </c>
       <c r="T3" t="n">
-        <v>1989.24183113471</v>
+        <v>1989.24224781132</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.041857168554</v>
+        <v>2039.042309431471</v>
       </c>
       <c r="V3" t="n">
-        <v>2072.248896923401</v>
+        <v>2072.249369351892</v>
       </c>
       <c r="W3" t="n">
-        <v>1371.955586097293</v>
+        <v>1371.955806501576</v>
       </c>
     </row>
     <row r="4">
@@ -707,67 +707,67 @@
         <v>9.138821491683055</v>
       </c>
       <c r="C4" t="n">
-        <v>1247.261904301947</v>
+        <v>1247.262114355604</v>
       </c>
       <c r="D4" t="n">
-        <v>1360.146651327596</v>
+        <v>1360.146926952168</v>
       </c>
       <c r="E4" t="n">
-        <v>1502.261903069235</v>
+        <v>1502.262262773152</v>
       </c>
       <c r="F4" t="n">
-        <v>1638.722475902122</v>
+        <v>1638.722762068589</v>
       </c>
       <c r="G4" t="n">
-        <v>1689.415165349203</v>
+        <v>1689.415487739859</v>
       </c>
       <c r="H4" t="n">
-        <v>1740.107854796283</v>
+        <v>1740.108213411129</v>
       </c>
       <c r="I4" t="n">
-        <v>1790.800544290677</v>
+        <v>1790.800939129713</v>
       </c>
       <c r="J4" t="n">
-        <v>1841.49323378507</v>
+        <v>1841.493664848297</v>
       </c>
       <c r="K4" t="n">
-        <v>1892.185923232151</v>
+        <v>1892.186390519567</v>
       </c>
       <c r="L4" t="n">
-        <v>1925.988197805367</v>
+        <v>1925.988685619825</v>
       </c>
       <c r="M4" t="n">
-        <v>1427.261904301947</v>
+        <v>1427.262114355604</v>
       </c>
       <c r="N4" t="n">
-        <v>1540.146651327596</v>
+        <v>1540.146926952168</v>
       </c>
       <c r="O4" t="n">
-        <v>1682.261903069235</v>
+        <v>1682.262262773152</v>
       </c>
       <c r="P4" t="n">
-        <v>1818.722475902122</v>
+        <v>1818.722762068589</v>
       </c>
       <c r="Q4" t="n">
-        <v>1869.415165349203</v>
+        <v>1869.415487739859</v>
       </c>
       <c r="R4" t="n">
-        <v>1920.107854796283</v>
+        <v>1920.108213411129</v>
       </c>
       <c r="S4" t="n">
-        <v>1970.800544290677</v>
+        <v>1970.800939129713</v>
       </c>
       <c r="T4" t="n">
-        <v>2021.49323378507</v>
+        <v>2021.493664848297</v>
       </c>
       <c r="U4" t="n">
-        <v>2072.18592323215</v>
+        <v>2072.186390519567</v>
       </c>
       <c r="V4" t="n">
-        <v>2105.988197805367</v>
+        <v>2105.988685619825</v>
       </c>
       <c r="W4" t="n">
-        <v>1396.368650836119</v>
+        <v>1396.368882108845</v>
       </c>
     </row>
     <row r="5">
@@ -780,67 +780,67 @@
         <v>8.428581950109734</v>
       </c>
       <c r="C5" t="n">
-        <v>1273.899348189936</v>
+        <v>1273.899571353115</v>
       </c>
       <c r="D5" t="n">
-        <v>1388.932158963886</v>
+        <v>1388.932448945718</v>
       </c>
       <c r="E5" t="n">
-        <v>1533.751696522613</v>
+        <v>1533.75207218372</v>
       </c>
       <c r="F5" t="n">
-        <v>1672.808953294635</v>
+        <v>1672.809254018961</v>
       </c>
       <c r="G5" t="n">
-        <v>1724.4662649017</v>
+        <v>1724.466602539519</v>
       </c>
       <c r="H5" t="n">
-        <v>1776.123576508765</v>
+        <v>1776.123951060078</v>
       </c>
       <c r="I5" t="n">
-        <v>1827.780888164043</v>
+        <v>1827.78129962885</v>
       </c>
       <c r="J5" t="n">
-        <v>1879.438199819321</v>
+        <v>1879.438648197622</v>
       </c>
       <c r="K5" t="n">
-        <v>1931.095511426386</v>
+        <v>1931.095996718181</v>
       </c>
       <c r="L5" t="n">
-        <v>1965.541003462848</v>
+        <v>1965.541509672288</v>
       </c>
       <c r="M5" t="n">
-        <v>1453.899348189936</v>
+        <v>1453.899571353115</v>
       </c>
       <c r="N5" t="n">
-        <v>1568.932158963886</v>
+        <v>1568.932448945718</v>
       </c>
       <c r="O5" t="n">
-        <v>1713.751696522613</v>
+        <v>1713.75207218372</v>
       </c>
       <c r="P5" t="n">
-        <v>1852.808953294635</v>
+        <v>1852.809254018961</v>
       </c>
       <c r="Q5" t="n">
-        <v>1904.4662649017</v>
+        <v>1904.466602539519</v>
       </c>
       <c r="R5" t="n">
-        <v>1956.123576508765</v>
+        <v>1956.123951060078</v>
       </c>
       <c r="S5" t="n">
-        <v>2007.780888164043</v>
+        <v>2007.78129962885</v>
       </c>
       <c r="T5" t="n">
-        <v>2059.438199819321</v>
+        <v>2059.438648197622</v>
       </c>
       <c r="U5" t="n">
-        <v>2111.095511426386</v>
+        <v>2111.095996718181</v>
       </c>
       <c r="V5" t="n">
-        <v>2145.541003462848</v>
+        <v>2145.541509672288</v>
       </c>
       <c r="W5" t="n">
-        <v>1425.843420450536</v>
+        <v>1425.843665236559</v>
       </c>
     </row>
     <row r="6">
@@ -853,67 +853,67 @@
         <v>7.75467513281789</v>
       </c>
       <c r="C6" t="n">
-        <v>1304.185970827955</v>
+        <v>1304.186209026059</v>
       </c>
       <c r="D6" t="n">
-        <v>1421.529901338254</v>
+        <v>1421.530207697461</v>
       </c>
       <c r="E6" t="n">
-        <v>1569.259002605013</v>
+        <v>1569.259396364875</v>
       </c>
       <c r="F6" t="n">
-        <v>1711.11005332544</v>
+        <v>1711.110370642969</v>
       </c>
       <c r="G6" t="n">
-        <v>1763.805209974964</v>
+        <v>1763.805564947613</v>
       </c>
       <c r="H6" t="n">
-        <v>1816.500366624487</v>
+        <v>1816.500759252258</v>
       </c>
       <c r="I6" t="n">
-        <v>1869.195523323192</v>
+        <v>1869.195953606084</v>
       </c>
       <c r="J6" t="n">
-        <v>1921.890680021898</v>
+        <v>1921.891147959911</v>
       </c>
       <c r="K6" t="n">
-        <v>1974.585836671421</v>
+        <v>1974.586342264556</v>
       </c>
       <c r="L6" t="n">
-        <v>2009.723371751411</v>
+        <v>2009.723898682448</v>
       </c>
       <c r="M6" t="n">
-        <v>1484.185970827955</v>
+        <v>1484.186209026059</v>
       </c>
       <c r="N6" t="n">
-        <v>1601.529901338254</v>
+        <v>1601.530207697461</v>
       </c>
       <c r="O6" t="n">
-        <v>1749.259002605013</v>
+        <v>1749.259396364875</v>
       </c>
       <c r="P6" t="n">
-        <v>1891.11005332544</v>
+        <v>1891.110370642969</v>
       </c>
       <c r="Q6" t="n">
-        <v>1943.805209974964</v>
+        <v>1943.805564947613</v>
       </c>
       <c r="R6" t="n">
-        <v>1996.500366624487</v>
+        <v>1996.500759252258</v>
       </c>
       <c r="S6" t="n">
-        <v>2049.195523323192</v>
+        <v>2049.195953606084</v>
       </c>
       <c r="T6" t="n">
-        <v>2101.890680021898</v>
+        <v>2101.891147959911</v>
       </c>
       <c r="U6" t="n">
-        <v>2154.585836671421</v>
+        <v>2154.586342264556</v>
       </c>
       <c r="V6" t="n">
-        <v>2189.723371751411</v>
+        <v>2189.723898682448</v>
       </c>
       <c r="W6" t="n">
-        <v>1459.18274554675</v>
+        <v>1459.183005802121</v>
       </c>
     </row>
     <row r="7">
@@ -926,67 +926,67 @@
         <v>7.154754223821947</v>
       </c>
       <c r="C7" t="n">
-        <v>1336.777420089741</v>
+        <v>1336.777674529381</v>
       </c>
       <c r="D7" t="n">
-        <v>1456.545058696456</v>
+        <v>1456.54538270505</v>
       </c>
       <c r="E7" t="n">
-        <v>1607.325465789256</v>
+        <v>1607.325879003742</v>
       </c>
       <c r="F7" t="n">
-        <v>1752.106412743951</v>
+        <v>1752.106747937208</v>
       </c>
       <c r="G7" t="n">
-        <v>1805.889974028107</v>
+        <v>1805.890347654241</v>
       </c>
       <c r="H7" t="n">
-        <v>1859.673535312263</v>
+        <v>1859.673947371275</v>
       </c>
       <c r="I7" t="n">
-        <v>1913.457096646617</v>
+        <v>1913.457547138506</v>
       </c>
       <c r="J7" t="n">
-        <v>1967.24065798097</v>
+        <v>1967.241146905738</v>
       </c>
       <c r="K7" t="n">
-        <v>2021.024219265126</v>
+        <v>2021.024746622772</v>
       </c>
       <c r="L7" t="n">
-        <v>2056.887510912935</v>
+        <v>2056.888060049211</v>
       </c>
       <c r="M7" t="n">
-        <v>1516.777420089741</v>
+        <v>1516.777674529381</v>
       </c>
       <c r="N7" t="n">
-        <v>1636.545058696456</v>
+        <v>1636.54538270505</v>
       </c>
       <c r="O7" t="n">
-        <v>1787.325465789256</v>
+        <v>1787.325879003742</v>
       </c>
       <c r="P7" t="n">
-        <v>1932.106412743951</v>
+        <v>1932.106747937208</v>
       </c>
       <c r="Q7" t="n">
-        <v>1985.889974028107</v>
+        <v>1985.890347654241</v>
       </c>
       <c r="R7" t="n">
-        <v>2039.673535312263</v>
+        <v>2039.673947371275</v>
       </c>
       <c r="S7" t="n">
-        <v>2093.457096646617</v>
+        <v>2093.457547138506</v>
       </c>
       <c r="T7" t="n">
-        <v>2147.24065798097</v>
+        <v>2147.241146905738</v>
       </c>
       <c r="U7" t="n">
-        <v>2201.024219265126</v>
+        <v>2201.024746622772</v>
       </c>
       <c r="V7" t="n">
-        <v>2236.887510912935</v>
+        <v>2236.888060049211</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.975612522862</v>
+        <v>1494.975889475357</v>
       </c>
     </row>
     <row r="8">
@@ -999,67 +999,67 @@
         <v>6.641573103834406</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.328948892886</v>
+        <v>1370.329220075874</v>
       </c>
       <c r="D8" t="n">
-        <v>1492.568010803981</v>
+        <v>1492.568352991489</v>
       </c>
       <c r="E8" t="n">
-        <v>1646.459794360975</v>
+        <v>1646.460227595152</v>
       </c>
       <c r="F8" t="n">
-        <v>1794.228318014155</v>
+        <v>1794.228671617122</v>
       </c>
       <c r="G8" t="n">
-        <v>1849.121711205298</v>
+        <v>1849.12210403421</v>
       </c>
       <c r="H8" t="n">
-        <v>1904.01510439644</v>
+        <v>1904.015536451299</v>
       </c>
       <c r="I8" t="n">
-        <v>1958.908497638816</v>
+        <v>1958.908968919622</v>
       </c>
       <c r="J8" t="n">
-        <v>2013.801890881193</v>
+        <v>2013.802401387944</v>
       </c>
       <c r="K8" t="n">
-        <v>2068.695284072335</v>
+        <v>2068.695833805033</v>
       </c>
       <c r="L8" t="n">
-        <v>2105.2986201577</v>
+        <v>2105.299192118434</v>
       </c>
       <c r="M8" t="n">
-        <v>1550.328948892886</v>
+        <v>1550.329220075874</v>
       </c>
       <c r="N8" t="n">
-        <v>1672.568010803981</v>
+        <v>1672.568352991489</v>
       </c>
       <c r="O8" t="n">
-        <v>1826.459794360975</v>
+        <v>1826.460227595152</v>
       </c>
       <c r="P8" t="n">
-        <v>1974.228318014155</v>
+        <v>1974.228671617122</v>
       </c>
       <c r="Q8" t="n">
-        <v>2029.121711205298</v>
+        <v>2029.12210403421</v>
       </c>
       <c r="R8" t="n">
-        <v>2084.01510439644</v>
+        <v>2084.015536451299</v>
       </c>
       <c r="S8" t="n">
-        <v>2138.908497638817</v>
+        <v>2138.908968919622</v>
       </c>
       <c r="T8" t="n">
-        <v>2193.801890881193</v>
+        <v>2193.802401387944</v>
       </c>
       <c r="U8" t="n">
-        <v>2248.695284072335</v>
+        <v>2248.695833805033</v>
       </c>
       <c r="V8" t="n">
-        <v>2285.2986201577</v>
+        <v>2285.299192118434</v>
       </c>
       <c r="W8" t="n">
-        <v>1531.791584910588</v>
+        <v>1531.791879070986</v>
       </c>
     </row>
     <row r="9">
@@ -1072,67 +1072,67 @@
         <v>6.213918592234864</v>
       </c>
       <c r="C9" t="n">
-        <v>1403.576477903355</v>
+        <v>1403.576765674371</v>
       </c>
       <c r="D9" t="n">
-        <v>1528.268232515093</v>
+        <v>1528.268592715315</v>
       </c>
       <c r="E9" t="n">
-        <v>1685.247811808722</v>
+        <v>1685.248264882438</v>
       </c>
       <c r="F9" t="n">
-        <v>1835.981269695547</v>
+        <v>1835.981641540276</v>
       </c>
       <c r="G9" t="n">
-        <v>1891.97608351843</v>
+        <v>1891.976495376163</v>
       </c>
       <c r="H9" t="n">
-        <v>1947.970897341313</v>
+        <v>1947.971349212049</v>
       </c>
       <c r="I9" t="n">
-        <v>2003.965711216458</v>
+        <v>2003.966203100198</v>
       </c>
       <c r="J9" t="n">
-        <v>2059.960525091602</v>
+        <v>2059.961056988346</v>
       </c>
       <c r="K9" t="n">
-        <v>2115.955338914485</v>
+        <v>2115.955910824233</v>
       </c>
       <c r="L9" t="n">
-        <v>2153.293110734485</v>
+        <v>2153.293705318269</v>
       </c>
       <c r="M9" t="n">
-        <v>1583.576477903355</v>
+        <v>1583.576765674371</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.268232515093</v>
+        <v>1708.268592715315</v>
       </c>
       <c r="O9" t="n">
-        <v>1865.247811808722</v>
+        <v>1865.248264882438</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.981269695547</v>
+        <v>2015.981641540276</v>
       </c>
       <c r="Q9" t="n">
-        <v>2071.97608351843</v>
+        <v>2071.976495376162</v>
       </c>
       <c r="R9" t="n">
-        <v>2127.970897341313</v>
+        <v>2127.971349212049</v>
       </c>
       <c r="S9" t="n">
-        <v>2183.965711216458</v>
+        <v>2183.966203100198</v>
       </c>
       <c r="T9" t="n">
-        <v>2239.960525091602</v>
+        <v>2239.961056988346</v>
       </c>
       <c r="U9" t="n">
-        <v>2295.955338914485</v>
+        <v>2295.955910824233</v>
       </c>
       <c r="V9" t="n">
-        <v>2333.293110734485</v>
+        <v>2333.293705318269</v>
       </c>
       <c r="W9" t="n">
-        <v>1568.278816701787</v>
+        <v>1568.279127911248</v>
       </c>
     </row>
     <row r="10">
@@ -1145,67 +1145,67 @@
         <v>5.864031156059455</v>
       </c>
       <c r="C10" t="n">
-        <v>1435.408032170708</v>
+        <v>1435.4083357985</v>
       </c>
       <c r="D10" t="n">
-        <v>1562.473143095681</v>
+        <v>1562.47352053128</v>
       </c>
       <c r="E10" t="n">
-        <v>1722.440638284193</v>
+        <v>1722.441110361021</v>
       </c>
       <c r="F10" t="n">
-        <v>1876.043124720703</v>
+        <v>1876.043514022449</v>
       </c>
       <c r="G10" t="n">
-        <v>1933.103731909866</v>
+        <v>1933.104161986214</v>
       </c>
       <c r="H10" t="n">
-        <v>1990.164339099028</v>
+        <v>1990.164809949979</v>
       </c>
       <c r="I10" t="n">
-        <v>2047.224946341446</v>
+        <v>2047.225457967</v>
       </c>
       <c r="J10" t="n">
-        <v>2104.285553583865</v>
+        <v>2104.286105984022</v>
       </c>
       <c r="K10" t="n">
-        <v>2161.346160773027</v>
+        <v>2161.346753947787</v>
       </c>
       <c r="L10" t="n">
-        <v>2199.394611793485</v>
+        <v>2199.395228073853</v>
       </c>
       <c r="M10" t="n">
-        <v>1615.408032170708</v>
+        <v>1615.4083357985</v>
       </c>
       <c r="N10" t="n">
-        <v>1742.473143095681</v>
+        <v>1742.47352053128</v>
       </c>
       <c r="O10" t="n">
-        <v>1902.440638284193</v>
+        <v>1902.441110361021</v>
       </c>
       <c r="P10" t="n">
-        <v>2056.043124720703</v>
+        <v>2056.043514022449</v>
       </c>
       <c r="Q10" t="n">
-        <v>2113.103731909866</v>
+        <v>2113.104161986214</v>
       </c>
       <c r="R10" t="n">
-        <v>2170.164339099028</v>
+        <v>2170.164809949979</v>
       </c>
       <c r="S10" t="n">
-        <v>2227.224946341446</v>
+        <v>2227.225457967</v>
       </c>
       <c r="T10" t="n">
-        <v>2284.285553583865</v>
+        <v>2284.286105984022</v>
       </c>
       <c r="U10" t="n">
-        <v>2341.346160773027</v>
+        <v>2341.346753947787</v>
       </c>
       <c r="V10" t="n">
-        <v>2379.394611793485</v>
+        <v>2379.395228073853</v>
       </c>
       <c r="W10" t="n">
-        <v>1603.245280224438</v>
+        <v>1603.245607736798</v>
       </c>
     </row>
     <row r="11">
@@ -1218,67 +1218,67 @@
         <v>5.581834784397747</v>
       </c>
       <c r="C11" t="n">
-        <v>1464.925081050879</v>
+        <v>1464.925399339297</v>
       </c>
       <c r="D11" t="n">
-        <v>1594.234748190118</v>
+        <v>1594.23514159013</v>
       </c>
       <c r="E11" t="n">
-        <v>1757.028007530507</v>
+        <v>1757.028497243549</v>
       </c>
       <c r="F11" t="n">
-        <v>1913.343822692331</v>
+        <v>1913.3442281681</v>
       </c>
       <c r="G11" t="n">
-        <v>1971.412383516632</v>
+        <v>1971.412830487272</v>
       </c>
       <c r="H11" t="n">
-        <v>2029.480944340934</v>
+        <v>2029.481432806444</v>
       </c>
       <c r="I11" t="n">
-        <v>2087.549505219433</v>
+        <v>2087.550035179814</v>
       </c>
       <c r="J11" t="n">
-        <v>2145.618066097933</v>
+        <v>2145.618637553183</v>
       </c>
       <c r="K11" t="n">
-        <v>2203.686626922234</v>
+        <v>2203.687239872355</v>
       </c>
       <c r="L11" t="n">
-        <v>2242.407189166296</v>
+        <v>2242.407825630177</v>
       </c>
       <c r="M11" t="n">
-        <v>1644.925081050879</v>
+        <v>1644.925399339297</v>
       </c>
       <c r="N11" t="n">
-        <v>1774.234748190118</v>
+        <v>1774.23514159013</v>
       </c>
       <c r="O11" t="n">
-        <v>1937.028007530507</v>
+        <v>1937.028497243549</v>
       </c>
       <c r="P11" t="n">
-        <v>2093.343822692331</v>
+        <v>2093.3442281681</v>
       </c>
       <c r="Q11" t="n">
-        <v>2151.412383516632</v>
+        <v>2151.412830487272</v>
       </c>
       <c r="R11" t="n">
-        <v>2209.480944340934</v>
+        <v>2209.481432806444</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.549505219433</v>
+        <v>2267.550035179814</v>
       </c>
       <c r="T11" t="n">
-        <v>2325.618066097933</v>
+        <v>2325.618637553183</v>
       </c>
       <c r="U11" t="n">
-        <v>2383.686626922234</v>
+        <v>2383.687239872355</v>
       </c>
       <c r="V11" t="n">
-        <v>2422.407189166296</v>
+        <v>2422.407825630177</v>
       </c>
       <c r="W11" t="n">
-        <v>1635.727109407889</v>
+        <v>1635.727452002786</v>
       </c>
     </row>
     <row r="12">
@@ -1291,67 +1291,67 @@
         <v>5.35704925781691</v>
       </c>
       <c r="C12" t="n">
-        <v>1491.487020900449</v>
+        <v>1491.487352321213</v>
       </c>
       <c r="D12" t="n">
-        <v>1622.877871422363</v>
+        <v>1622.87827916361</v>
       </c>
       <c r="E12" t="n">
-        <v>1788.291218136312</v>
+        <v>1788.291723740705</v>
       </c>
       <c r="F12" t="n">
-        <v>1947.122868998291</v>
+        <v>1947.123289009649</v>
       </c>
       <c r="G12" t="n">
-        <v>2006.12601829163</v>
+        <v>2006.126480465701</v>
       </c>
       <c r="H12" t="n">
-        <v>2065.129167584969</v>
+        <v>2065.129671921753</v>
       </c>
       <c r="I12" t="n">
-        <v>2124.132316933378</v>
+        <v>2124.132863432874</v>
       </c>
       <c r="J12" t="n">
-        <v>2183.135466281787</v>
+        <v>2183.136054943995</v>
       </c>
       <c r="K12" t="n">
-        <v>2242.138615575126</v>
+        <v>2242.139246400046</v>
       </c>
       <c r="L12" t="n">
-        <v>2281.482368586691</v>
+        <v>2281.483023303816</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.487020900449</v>
+        <v>1671.487352321213</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.877871422363</v>
+        <v>1802.87827916361</v>
       </c>
       <c r="O12" t="n">
-        <v>1968.291218136312</v>
+        <v>1968.291723740705</v>
       </c>
       <c r="P12" t="n">
-        <v>2127.122868998291</v>
+        <v>2127.123289009649</v>
       </c>
       <c r="Q12" t="n">
-        <v>2186.12601829163</v>
+        <v>2186.126480465701</v>
       </c>
       <c r="R12" t="n">
-        <v>2245.129167584969</v>
+        <v>2245.129671921753</v>
       </c>
       <c r="S12" t="n">
-        <v>2304.132316933378</v>
+        <v>2304.132863432874</v>
       </c>
       <c r="T12" t="n">
-        <v>2363.135466281787</v>
+        <v>2363.136054943995</v>
       </c>
       <c r="U12" t="n">
-        <v>2422.138615575126</v>
+        <v>2422.139246400046</v>
       </c>
       <c r="V12" t="n">
-        <v>2461.482368586691</v>
+        <v>2461.483023303816</v>
       </c>
       <c r="W12" t="n">
-        <v>1665.038034317957</v>
+        <v>1665.038390436403</v>
       </c>
     </row>
     <row r="13">
@@ -1364,67 +1364,67 @@
         <v>5.180090012911951</v>
       </c>
       <c r="C13" t="n">
-        <v>1514.733555849635</v>
+        <v>1514.733898685686</v>
       </c>
       <c r="D13" t="n">
-        <v>1648.024779490222</v>
+        <v>1648.025199750618</v>
       </c>
       <c r="E13" t="n">
-        <v>1815.830584098431</v>
+        <v>1815.831103637419</v>
       </c>
       <c r="F13" t="n">
-        <v>1976.959498418966</v>
+        <v>1976.959931126942</v>
       </c>
       <c r="G13" t="n">
-        <v>2036.816040459126</v>
+        <v>2036.816515939636</v>
       </c>
       <c r="H13" t="n">
-        <v>2096.672582499286</v>
+        <v>2096.673100752329</v>
       </c>
       <c r="I13" t="n">
-        <v>2156.529124595313</v>
+        <v>2156.529685620889</v>
       </c>
       <c r="J13" t="n">
-        <v>2216.385666691339</v>
+        <v>2216.38627048945</v>
       </c>
       <c r="K13" t="n">
-        <v>2276.2422087315</v>
+        <v>2276.242855302143</v>
       </c>
       <c r="L13" t="n">
-        <v>2316.155010579525</v>
+        <v>2316.155681387937</v>
       </c>
       <c r="M13" t="n">
-        <v>1694.733555849635</v>
+        <v>1694.733898685686</v>
       </c>
       <c r="N13" t="n">
-        <v>1828.024779490222</v>
+        <v>1828.025199750618</v>
       </c>
       <c r="O13" t="n">
-        <v>1995.830584098431</v>
+        <v>1995.831103637419</v>
       </c>
       <c r="P13" t="n">
-        <v>2156.959498418966</v>
+        <v>2156.959931126942</v>
       </c>
       <c r="Q13" t="n">
-        <v>2216.816040459126</v>
+        <v>2216.816515939636</v>
       </c>
       <c r="R13" t="n">
-        <v>2276.672582499286</v>
+        <v>2276.673100752329</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.529124595313</v>
+        <v>2336.529685620889</v>
       </c>
       <c r="T13" t="n">
-        <v>2396.385666691339</v>
+        <v>2396.38627048945</v>
       </c>
       <c r="U13" t="n">
-        <v>2456.2422087315</v>
+        <v>2456.242855302143</v>
       </c>
       <c r="V13" t="n">
-        <v>2496.155010579525</v>
+        <v>2496.155681387937</v>
       </c>
       <c r="W13" t="n">
-        <v>1690.794726399903</v>
+        <v>1690.795094290852</v>
       </c>
     </row>
     <row r="14">
@@ -1437,67 +1437,67 @@
         <v>5.042337968115827</v>
       </c>
       <c r="C14" t="n">
-        <v>1534.583944731547</v>
+        <v>1534.584297219097</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.595305709802</v>
+        <v>1669.595736620866</v>
       </c>
       <c r="E14" t="n">
-        <v>1839.566661973254</v>
+        <v>1839.56719344411</v>
       </c>
       <c r="F14" t="n">
-        <v>2002.774961973735</v>
+        <v>2002.775405493017</v>
       </c>
       <c r="G14" t="n">
-        <v>2063.40395901922</v>
+        <v>2063.404445863019</v>
       </c>
       <c r="H14" t="n">
-        <v>2124.032956064705</v>
+        <v>2124.033486233022</v>
       </c>
       <c r="I14" t="n">
-        <v>2184.661953166777</v>
+        <v>2184.662526659611</v>
       </c>
       <c r="J14" t="n">
-        <v>2245.29095026885</v>
+        <v>2245.291567086201</v>
       </c>
       <c r="K14" t="n">
-        <v>2305.919947314334</v>
+        <v>2305.920607456203</v>
       </c>
       <c r="L14" t="n">
-        <v>2346.347828091299</v>
+        <v>2346.348512783728</v>
       </c>
       <c r="M14" t="n">
-        <v>1714.583944731547</v>
+        <v>1714.584297219097</v>
       </c>
       <c r="N14" t="n">
-        <v>1849.595305709802</v>
+        <v>1849.595736620866</v>
       </c>
       <c r="O14" t="n">
-        <v>2019.566661973254</v>
+        <v>2019.56719344411</v>
       </c>
       <c r="P14" t="n">
-        <v>2182.774961973735</v>
+        <v>2182.775405493016</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.40395901922</v>
+        <v>2243.404445863019</v>
       </c>
       <c r="R14" t="n">
-        <v>2304.032956064705</v>
+        <v>2304.033486233022</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.661953166777</v>
+        <v>2364.662526659611</v>
       </c>
       <c r="T14" t="n">
-        <v>2425.29095026885</v>
+        <v>2425.291567086201</v>
       </c>
       <c r="U14" t="n">
-        <v>2485.919947314334</v>
+        <v>2485.920607456203</v>
       </c>
       <c r="V14" t="n">
-        <v>2526.347828091299</v>
+        <v>2526.348512783728</v>
       </c>
       <c r="W14" t="n">
-        <v>1712.917203307609</v>
+        <v>1712.917581173392</v>
       </c>
     </row>
     <row r="15">
@@ -1510,67 +1510,67 @@
         <v>4.936107640587633</v>
       </c>
       <c r="C15" t="n">
-        <v>1551.217138827462</v>
+        <v>1551.217499286735</v>
       </c>
       <c r="D15" t="n">
-        <v>1687.786944271299</v>
+        <v>1687.787384059334</v>
       </c>
       <c r="E15" t="n">
-        <v>1859.720290381806</v>
+        <v>1859.720831890401</v>
       </c>
       <c r="F15" t="n">
-        <v>2024.812513853837</v>
+        <v>2024.812966395627</v>
       </c>
       <c r="G15" t="n">
-        <v>2086.141355151055</v>
+        <v>2086.14185151746</v>
       </c>
       <c r="H15" t="n">
-        <v>2147.470196448274</v>
+        <v>2147.470736639294</v>
       </c>
       <c r="I15" t="n">
-        <v>2208.799037802733</v>
+        <v>2208.799621818368</v>
       </c>
       <c r="J15" t="n">
-        <v>2270.127879157191</v>
+        <v>2270.128506997441</v>
       </c>
       <c r="K15" t="n">
-        <v>2331.45672045441</v>
+        <v>2331.457392119275</v>
       </c>
       <c r="L15" t="n">
-        <v>2372.351262752267</v>
+        <v>2372.351959251082</v>
       </c>
       <c r="M15" t="n">
-        <v>1731.217138827462</v>
+        <v>1731.217499286735</v>
       </c>
       <c r="N15" t="n">
-        <v>1867.786944271299</v>
+        <v>1867.787384059334</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.720290381806</v>
+        <v>2039.720831890401</v>
       </c>
       <c r="P15" t="n">
-        <v>2204.812513853837</v>
+        <v>2204.812966395627</v>
       </c>
       <c r="Q15" t="n">
-        <v>2266.141355151055</v>
+        <v>2266.14185151746</v>
       </c>
       <c r="R15" t="n">
-        <v>2327.470196448274</v>
+        <v>2327.470736639294</v>
       </c>
       <c r="S15" t="n">
-        <v>2388.799037802733</v>
+        <v>2388.799621818368</v>
       </c>
       <c r="T15" t="n">
-        <v>2450.127879157191</v>
+        <v>2450.128506997441</v>
       </c>
       <c r="U15" t="n">
-        <v>2511.45672045441</v>
+        <v>2511.457392119275</v>
       </c>
       <c r="V15" t="n">
-        <v>2552.351262752267</v>
+        <v>2552.351959251082</v>
       </c>
       <c r="W15" t="n">
-        <v>1731.60890920463</v>
+        <v>1731.609295335079</v>
       </c>
     </row>
     <row r="16">
@@ -1583,67 +1583,67 @@
         <v>4.854478716833431</v>
       </c>
       <c r="C16" t="n">
-        <v>1565.041860734129</v>
+        <v>1565.042227683049</v>
       </c>
       <c r="D16" t="n">
-        <v>1703.044877148435</v>
+        <v>1703.04532425862</v>
       </c>
       <c r="E16" t="n">
-        <v>1876.782551507298</v>
+        <v>1876.783101405534</v>
       </c>
       <c r="F16" t="n">
-        <v>2043.607310110723</v>
+        <v>2043.607770108506</v>
       </c>
       <c r="G16" t="n">
-        <v>2105.579757568672</v>
+        <v>2105.58026185098</v>
       </c>
       <c r="H16" t="n">
-        <v>2167.55220502662</v>
+        <v>2167.552753593454</v>
       </c>
       <c r="I16" t="n">
-        <v>2229.524652542409</v>
+        <v>2229.525245393768</v>
       </c>
       <c r="J16" t="n">
-        <v>2291.497100058198</v>
+        <v>2291.497737194084</v>
       </c>
       <c r="K16" t="n">
-        <v>2353.469547516146</v>
+        <v>2353.470228936557</v>
       </c>
       <c r="L16" t="n">
-        <v>2394.793251343986</v>
+        <v>2394.793957858961</v>
       </c>
       <c r="M16" t="n">
-        <v>1745.041860734129</v>
+        <v>1745.042227683049</v>
       </c>
       <c r="N16" t="n">
-        <v>1883.044877148435</v>
+        <v>1883.04532425862</v>
       </c>
       <c r="O16" t="n">
-        <v>2056.782551507298</v>
+        <v>2056.783101405534</v>
       </c>
       <c r="P16" t="n">
-        <v>2223.607310110723</v>
+        <v>2223.607770108506</v>
       </c>
       <c r="Q16" t="n">
-        <v>2285.579757568672</v>
+        <v>2285.58026185098</v>
       </c>
       <c r="R16" t="n">
-        <v>2347.55220502662</v>
+        <v>2347.552753593454</v>
       </c>
       <c r="S16" t="n">
-        <v>2409.524652542409</v>
+        <v>2409.525245393768</v>
       </c>
       <c r="T16" t="n">
-        <v>2471.497100058198</v>
+        <v>2471.497737194084</v>
       </c>
       <c r="U16" t="n">
-        <v>2533.469547516146</v>
+        <v>2533.470228936557</v>
       </c>
       <c r="V16" t="n">
-        <v>2574.793251343986</v>
+        <v>2574.793957858961</v>
       </c>
       <c r="W16" t="n">
-        <v>1747.326725001609</v>
+        <v>1747.327117891107</v>
       </c>
     </row>
     <row r="17">
@@ -1656,67 +1656,67 @@
         <v>4.791051480420596</v>
       </c>
       <c r="C17" t="n">
-        <v>1576.671594151678</v>
+        <v>1576.671966403581</v>
       </c>
       <c r="D17" t="n">
-        <v>1716.038658209687</v>
+        <v>1716.039111415184</v>
       </c>
       <c r="E17" t="n">
-        <v>1891.493588259688</v>
+        <v>1891.494145269212</v>
       </c>
       <c r="F17" t="n">
-        <v>2059.967274001061</v>
+        <v>2059.967740221539</v>
       </c>
       <c r="G17" t="n">
-        <v>2122.552268728815</v>
+        <v>2122.552779671536</v>
       </c>
       <c r="H17" t="n">
-        <v>2185.137263456569</v>
+        <v>2185.137819121531</v>
       </c>
       <c r="I17" t="n">
-        <v>2247.722258242735</v>
+        <v>2247.72285862994</v>
       </c>
       <c r="J17" t="n">
-        <v>2310.307253028901</v>
+        <v>2310.307898138349</v>
       </c>
       <c r="K17" t="n">
-        <v>2372.892247756655</v>
+        <v>2372.892937588344</v>
       </c>
       <c r="L17" t="n">
-        <v>2414.624402807518</v>
+        <v>2414.625117981812</v>
       </c>
       <c r="M17" t="n">
-        <v>1756.671594151678</v>
+        <v>1756.671966403581</v>
       </c>
       <c r="N17" t="n">
-        <v>1896.038658209687</v>
+        <v>1896.039111415184</v>
       </c>
       <c r="O17" t="n">
-        <v>2071.493588259688</v>
+        <v>2071.494145269212</v>
       </c>
       <c r="P17" t="n">
-        <v>2239.967274001061</v>
+        <v>2239.967740221539</v>
       </c>
       <c r="Q17" t="n">
-        <v>2302.552268728815</v>
+        <v>2302.552779671536</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.137263456569</v>
+        <v>2365.137819121531</v>
       </c>
       <c r="S17" t="n">
-        <v>2427.722258242735</v>
+        <v>2427.72285862994</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.307253028901</v>
+        <v>2490.307898138349</v>
       </c>
       <c r="U17" t="n">
-        <v>2552.892247756655</v>
+        <v>2552.892937588344</v>
       </c>
       <c r="V17" t="n">
-        <v>2594.624402807518</v>
+        <v>2594.625117981812</v>
       </c>
       <c r="W17" t="n">
-        <v>1760.758196135095</v>
+        <v>1760.758594583978</v>
       </c>
     </row>
     <row r="18">
@@ -1729,67 +1729,67 @@
         <v>4.739588305217119</v>
       </c>
       <c r="C18" t="n">
-        <v>1586.932598452468</v>
+        <v>1586.932975210981</v>
       </c>
       <c r="D18" t="n">
-        <v>1727.677746021102</v>
+        <v>1727.678204533693</v>
       </c>
       <c r="E18" t="n">
-        <v>1904.8676020925</v>
+        <v>1904.868165435548</v>
       </c>
       <c r="F18" t="n">
-        <v>2075.007182210453</v>
+        <v>2075.007653866718</v>
       </c>
       <c r="G18" t="n">
-        <v>2138.211027237091</v>
+        <v>2138.211544057819</v>
       </c>
       <c r="H18" t="n">
-        <v>2201.414872263729</v>
+        <v>2201.41543424892</v>
       </c>
       <c r="I18" t="n">
-        <v>2264.618717349357</v>
+        <v>2264.619324499012</v>
       </c>
       <c r="J18" t="n">
-        <v>2327.822562434986</v>
+        <v>2327.823214749103</v>
       </c>
       <c r="K18" t="n">
-        <v>2391.026407461624</v>
+        <v>2391.027104940204</v>
       </c>
       <c r="L18" t="n">
-        <v>2433.1712166437</v>
+        <v>2433.171939715475</v>
       </c>
       <c r="M18" t="n">
-        <v>1766.932598452468</v>
+        <v>1766.932975210981</v>
       </c>
       <c r="N18" t="n">
-        <v>1907.677746021102</v>
+        <v>1907.678204533693</v>
       </c>
       <c r="O18" t="n">
-        <v>2084.8676020925</v>
+        <v>2084.868165435548</v>
       </c>
       <c r="P18" t="n">
-        <v>2255.007182210453</v>
+        <v>2255.007653866718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2318.211027237091</v>
+        <v>2318.211544057819</v>
       </c>
       <c r="R18" t="n">
-        <v>2381.414872263729</v>
+        <v>2381.41543424892</v>
       </c>
       <c r="S18" t="n">
-        <v>2444.618717349357</v>
+        <v>2444.619324499012</v>
       </c>
       <c r="T18" t="n">
-        <v>2507.822562434986</v>
+        <v>2507.823214749103</v>
       </c>
       <c r="U18" t="n">
-        <v>2571.026407461624</v>
+        <v>2571.027104940204</v>
       </c>
       <c r="V18" t="n">
-        <v>2613.1712166437</v>
+        <v>2613.171939715475</v>
       </c>
       <c r="W18" t="n">
-        <v>1772.839477790761</v>
+        <v>1772.839881005295</v>
       </c>
     </row>
     <row r="19">
@@ -1802,67 +1802,67 @@
         <v>4.693274917048557</v>
       </c>
       <c r="C19" t="n">
-        <v>1596.98472667453</v>
+        <v>1596.985107671279</v>
       </c>
       <c r="D19" t="n">
-        <v>1739.258924376098</v>
+        <v>1739.259388015096</v>
       </c>
       <c r="E19" t="n">
-        <v>1918.373764559991</v>
+        <v>1918.374334168321</v>
       </c>
       <c r="F19" t="n">
-        <v>2090.361734850469</v>
+        <v>2090.362211775935</v>
       </c>
       <c r="G19" t="n">
-        <v>2154.252224136674</v>
+        <v>2154.252746717267</v>
       </c>
       <c r="H19" t="n">
-        <v>2218.142713422878</v>
+        <v>2218.1432816586</v>
       </c>
       <c r="I19" t="n">
-        <v>2282.033202768714</v>
+        <v>2282.033816659564</v>
       </c>
       <c r="J19" t="n">
-        <v>2345.92369211455</v>
+        <v>2345.924351660527</v>
       </c>
       <c r="K19" t="n">
-        <v>2409.814181400754</v>
+        <v>2409.814886601861</v>
       </c>
       <c r="L19" t="n">
-        <v>2452.41685024759</v>
+        <v>2452.417581319935</v>
       </c>
       <c r="M19" t="n">
-        <v>1776.98472667453</v>
+        <v>1776.985107671279</v>
       </c>
       <c r="N19" t="n">
-        <v>1919.258924376098</v>
+        <v>1919.259388015096</v>
       </c>
       <c r="O19" t="n">
-        <v>2098.373764559991</v>
+        <v>2098.374334168321</v>
       </c>
       <c r="P19" t="n">
-        <v>2270.361734850469</v>
+        <v>2270.362211775935</v>
       </c>
       <c r="Q19" t="n">
-        <v>2334.252224136674</v>
+        <v>2334.252746717267</v>
       </c>
       <c r="R19" t="n">
-        <v>2398.142713422878</v>
+        <v>2398.1432816586</v>
       </c>
       <c r="S19" t="n">
-        <v>2462.033202768714</v>
+        <v>2462.033816659564</v>
       </c>
       <c r="T19" t="n">
-        <v>2525.92369211455</v>
+        <v>2525.924351660527</v>
       </c>
       <c r="U19" t="n">
-        <v>2589.814181400754</v>
+        <v>2589.814886601861</v>
       </c>
       <c r="V19" t="n">
-        <v>2632.41685024759</v>
+        <v>2632.417581319935</v>
       </c>
       <c r="W19" t="n">
-        <v>1784.911291547111</v>
+        <v>1784.911699287296</v>
       </c>
     </row>
     <row r="20">
@@ -1875,67 +1875,67 @@
         <v>4.642065839413932</v>
       </c>
       <c r="C20" t="n">
-        <v>1608.960172023472</v>
+        <v>1608.960557906768</v>
       </c>
       <c r="D20" t="n">
-        <v>1753.22077808259</v>
+        <v>1753.221247761973</v>
       </c>
       <c r="E20" t="n">
-        <v>1934.836389462178</v>
+        <v>1934.836966590419</v>
       </c>
       <c r="F20" t="n">
-        <v>2109.225626792656</v>
+        <v>2109.226109944009</v>
       </c>
       <c r="G20" t="n">
-        <v>2174.008144316843</v>
+        <v>2174.008673760754</v>
       </c>
       <c r="H20" t="n">
-        <v>2238.79066184103</v>
+        <v>2238.791237577499</v>
       </c>
       <c r="I20" t="n">
-        <v>2303.573179425681</v>
+        <v>2303.573801454706</v>
       </c>
       <c r="J20" t="n">
-        <v>2368.355697010332</v>
+        <v>2368.356365331915</v>
       </c>
       <c r="K20" t="n">
-        <v>2433.138214534519</v>
+        <v>2433.138929148659</v>
       </c>
       <c r="L20" t="n">
-        <v>2476.335694659987</v>
+        <v>2476.336435506576</v>
       </c>
       <c r="M20" t="n">
-        <v>1788.960172023472</v>
+        <v>1788.960557906768</v>
       </c>
       <c r="N20" t="n">
-        <v>1933.22077808259</v>
+        <v>1933.221247761973</v>
       </c>
       <c r="O20" t="n">
-        <v>2114.836389462178</v>
+        <v>2114.836966590418</v>
       </c>
       <c r="P20" t="n">
-        <v>2289.225626792656</v>
+        <v>2289.226109944009</v>
       </c>
       <c r="Q20" t="n">
-        <v>2354.008144316843</v>
+        <v>2354.008673760754</v>
       </c>
       <c r="R20" t="n">
-        <v>2418.79066184103</v>
+        <v>2418.791237577499</v>
       </c>
       <c r="S20" t="n">
-        <v>2483.573179425681</v>
+        <v>2483.573801454706</v>
       </c>
       <c r="T20" t="n">
-        <v>2548.355697010332</v>
+        <v>2548.356365331915</v>
       </c>
       <c r="U20" t="n">
-        <v>2613.138214534519</v>
+        <v>2613.138929148659</v>
       </c>
       <c r="V20" t="n">
-        <v>2656.335694659987</v>
+        <v>2656.336435506576</v>
       </c>
       <c r="W20" t="n">
-        <v>1799.510535905987</v>
+        <v>1799.510948906108</v>
       </c>
     </row>
     <row r="21">
@@ -1948,67 +1948,67 @@
         <v>4.447320093769219</v>
       </c>
       <c r="C21" t="n">
-        <v>1659.209363285626</v>
+        <v>1659.209769322634</v>
       </c>
       <c r="D21" t="n">
-        <v>1812.160030853396</v>
+        <v>1812.160525734252</v>
       </c>
       <c r="E21" t="n">
-        <v>2004.715918147069</v>
+        <v>2004.716526949355</v>
       </c>
       <c r="F21" t="n">
-        <v>2189.61012450719</v>
+        <v>2189.61063367155</v>
       </c>
       <c r="G21" t="n">
-        <v>2258.295052241271</v>
+        <v>2258.295610486788</v>
       </c>
       <c r="H21" t="n">
-        <v>2326.979979975351</v>
+        <v>2326.980587302026</v>
       </c>
       <c r="I21" t="n">
-        <v>2395.664907773537</v>
+        <v>2395.66556418137</v>
       </c>
       <c r="J21" t="n">
-        <v>2464.349835571724</v>
+        <v>2464.350541060714</v>
       </c>
       <c r="K21" t="n">
-        <v>2533.034763305805</v>
+        <v>2533.035517875951</v>
       </c>
       <c r="L21" t="n">
-        <v>2578.834400524354</v>
+        <v>2578.835182907158</v>
       </c>
       <c r="M21" t="n">
-        <v>1839.209363285626</v>
+        <v>1839.209769322634</v>
       </c>
       <c r="N21" t="n">
-        <v>1992.160030853396</v>
+        <v>1992.160525734252</v>
       </c>
       <c r="O21" t="n">
-        <v>2184.715918147069</v>
+        <v>2184.716526949355</v>
       </c>
       <c r="P21" t="n">
-        <v>2369.61012450719</v>
+        <v>2369.61063367155</v>
       </c>
       <c r="Q21" t="n">
-        <v>2438.295052241271</v>
+        <v>2438.295610486788</v>
       </c>
       <c r="R21" t="n">
-        <v>2506.979979975351</v>
+        <v>2506.980587302026</v>
       </c>
       <c r="S21" t="n">
-        <v>2575.664907773537</v>
+        <v>2575.66556418137</v>
       </c>
       <c r="T21" t="n">
-        <v>2644.349835571724</v>
+        <v>2644.350541060714</v>
       </c>
       <c r="U21" t="n">
-        <v>2713.034763305805</v>
+        <v>2713.035517875951</v>
       </c>
       <c r="V21" t="n">
-        <v>2758.834400524354</v>
+        <v>2758.835182907158</v>
       </c>
       <c r="W21" t="n">
-        <v>1861.238220347051</v>
+        <v>1861.238655134364</v>
       </c>
     </row>
   </sheetData>

--- a/models/calculation engines/economic_overlay/outputs/choosen_mine/Costs_RMBtAA.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/choosen_mine/Costs_RMBtAA.xlsx
@@ -558,70 +558,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.43234379142625</v>
+        <v>10.45416318635281</v>
       </c>
       <c r="C2" t="n">
-        <v>1204.686886564544</v>
+        <v>1271.819063574507</v>
       </c>
       <c r="D2" t="n">
-        <v>1312.404173630905</v>
+        <v>1379.506309023525</v>
       </c>
       <c r="E2" t="n">
-        <v>1448.013898916723</v>
+        <v>1515.07821368105</v>
       </c>
       <c r="F2" t="n">
-        <v>1578.227649001584</v>
+        <v>1645.255648038331</v>
       </c>
       <c r="G2" t="n">
-        <v>1626.599814908646</v>
+        <v>1693.614323277945</v>
       </c>
       <c r="H2" t="n">
-        <v>1674.971980815707</v>
+        <v>1741.972998517558</v>
       </c>
       <c r="I2" t="n">
-        <v>1723.344146767915</v>
+        <v>1790.331673802306</v>
       </c>
       <c r="J2" t="n">
-        <v>1771.716312720124</v>
+        <v>1838.690349087054</v>
       </c>
       <c r="K2" t="n">
-        <v>1820.088478627185</v>
+        <v>1887.049024326667</v>
       </c>
       <c r="L2" t="n">
-        <v>1852.343406824028</v>
+        <v>1919.294956843831</v>
       </c>
       <c r="M2" t="n">
-        <v>1384.686886564544</v>
+        <v>1451.819063574507</v>
       </c>
       <c r="N2" t="n">
-        <v>1492.404173630905</v>
+        <v>1559.506309023525</v>
       </c>
       <c r="O2" t="n">
-        <v>1628.013898916723</v>
+        <v>1695.07821368105</v>
       </c>
       <c r="P2" t="n">
-        <v>1758.227649001584</v>
+        <v>1825.255648038331</v>
       </c>
       <c r="Q2" t="n">
-        <v>1806.599814908646</v>
+        <v>1873.614323277945</v>
       </c>
       <c r="R2" t="n">
-        <v>1854.971980815707</v>
+        <v>1921.972998517558</v>
       </c>
       <c r="S2" t="n">
-        <v>1903.344146767915</v>
+        <v>1970.331673802306</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.716312720124</v>
+        <v>2018.690349087054</v>
       </c>
       <c r="U2" t="n">
-        <v>2000.088478627185</v>
+        <v>2067.049024326667</v>
       </c>
       <c r="V2" t="n">
-        <v>2032.343406824028</v>
+        <v>2099.294956843831</v>
       </c>
       <c r="W2" t="n">
-        <v>1346.967997160124</v>
+        <v>1414.060492937891</v>
       </c>
     </row>
     <row r="3">
@@ -631,70 +631,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.811795113809215</v>
+        <v>9.834548155105756</v>
       </c>
       <c r="C3" t="n">
-        <v>1225.474706427265</v>
+        <v>1295.272906453345</v>
       </c>
       <c r="D3" t="n">
-        <v>1336.37169507497</v>
+        <v>1406.133134136188</v>
       </c>
       <c r="E3" t="n">
-        <v>1475.984477527195</v>
+        <v>1545.699636697026</v>
       </c>
       <c r="F3" t="n">
-        <v>1610.042001237756</v>
+        <v>1679.712722014998</v>
       </c>
       <c r="G3" t="n">
-        <v>1659.842062857907</v>
+        <v>1729.49627553752</v>
       </c>
       <c r="H3" t="n">
-        <v>1709.642124478058</v>
+        <v>1779.279829060043</v>
       </c>
       <c r="I3" t="n">
-        <v>1759.442186144689</v>
+        <v>1829.06338262903</v>
       </c>
       <c r="J3" t="n">
-        <v>1809.24224781132</v>
+        <v>1878.846936198017</v>
       </c>
       <c r="K3" t="n">
-        <v>1859.042309431471</v>
+        <v>1928.63048972054</v>
       </c>
       <c r="L3" t="n">
-        <v>1892.249369351892</v>
+        <v>1961.826541915884</v>
       </c>
       <c r="M3" t="n">
-        <v>1405.474706427265</v>
+        <v>1475.272906453345</v>
       </c>
       <c r="N3" t="n">
-        <v>1516.37169507497</v>
+        <v>1586.133134136188</v>
       </c>
       <c r="O3" t="n">
-        <v>1655.984477527195</v>
+        <v>1725.699636697026</v>
       </c>
       <c r="P3" t="n">
-        <v>1790.042001237756</v>
+        <v>1859.712722014998</v>
       </c>
       <c r="Q3" t="n">
-        <v>1839.842062857907</v>
+        <v>1909.49627553752</v>
       </c>
       <c r="R3" t="n">
-        <v>1889.642124478058</v>
+        <v>1959.279829060043</v>
       </c>
       <c r="S3" t="n">
-        <v>1939.442186144689</v>
+        <v>2009.06338262903</v>
       </c>
       <c r="T3" t="n">
-        <v>1989.24224781132</v>
+        <v>2058.846936198017</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.042309431471</v>
+        <v>2108.63048972054</v>
       </c>
       <c r="V3" t="n">
-        <v>2072.249369351892</v>
+        <v>2141.826541915884</v>
       </c>
       <c r="W3" t="n">
-        <v>1371.955806501576</v>
+        <v>1441.705449874871</v>
       </c>
     </row>
     <row r="4">
@@ -704,70 +704,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.138821491683055</v>
+        <v>9.156391197352919</v>
       </c>
       <c r="C4" t="n">
-        <v>1247.262114355604</v>
+        <v>1321.269379243006</v>
       </c>
       <c r="D4" t="n">
-        <v>1360.146926952168</v>
+        <v>1434.120514448372</v>
       </c>
       <c r="E4" t="n">
-        <v>1502.262262773152</v>
+        <v>1576.193452415742</v>
       </c>
       <c r="F4" t="n">
-        <v>1638.722762068589</v>
+        <v>1712.613240888241</v>
       </c>
       <c r="G4" t="n">
-        <v>1689.415487739859</v>
+        <v>1763.290843189821</v>
       </c>
       <c r="H4" t="n">
-        <v>1740.108213411129</v>
+        <v>1813.968445491401</v>
       </c>
       <c r="I4" t="n">
-        <v>1790.800939129713</v>
+        <v>1864.64604784028</v>
       </c>
       <c r="J4" t="n">
-        <v>1841.493664848297</v>
+        <v>1915.323650189159</v>
       </c>
       <c r="K4" t="n">
-        <v>1892.186390519567</v>
+        <v>1966.001252490739</v>
       </c>
       <c r="L4" t="n">
-        <v>1925.988685619825</v>
+        <v>1999.793463213043</v>
       </c>
       <c r="M4" t="n">
-        <v>1427.262114355604</v>
+        <v>1501.269379243006</v>
       </c>
       <c r="N4" t="n">
-        <v>1540.146926952168</v>
+        <v>1614.120514448372</v>
       </c>
       <c r="O4" t="n">
-        <v>1682.262262773152</v>
+        <v>1756.193452415742</v>
       </c>
       <c r="P4" t="n">
-        <v>1818.722762068589</v>
+        <v>1892.613240888241</v>
       </c>
       <c r="Q4" t="n">
-        <v>1869.415487739859</v>
+        <v>1943.290843189821</v>
       </c>
       <c r="R4" t="n">
-        <v>1920.108213411129</v>
+        <v>1993.968445491401</v>
       </c>
       <c r="S4" t="n">
-        <v>1970.800939129713</v>
+        <v>2044.64604784028</v>
       </c>
       <c r="T4" t="n">
-        <v>2021.493664848297</v>
+        <v>2095.323650189159</v>
       </c>
       <c r="U4" t="n">
-        <v>2072.186390519567</v>
+        <v>2146.001252490739</v>
       </c>
       <c r="V4" t="n">
-        <v>2105.988685619825</v>
+        <v>2179.793463213043</v>
       </c>
       <c r="W4" t="n">
-        <v>1396.368882108845</v>
+        <v>1470.331663359942</v>
       </c>
     </row>
     <row r="5">
@@ -777,70 +777,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.428581950109734</v>
+        <v>8.437097249924284</v>
       </c>
       <c r="C5" t="n">
-        <v>1273.899571353115</v>
+        <v>1353.510192981046</v>
       </c>
       <c r="D5" t="n">
-        <v>1388.932448945718</v>
+        <v>1468.523236566966</v>
       </c>
       <c r="E5" t="n">
-        <v>1533.75207218372</v>
+        <v>1613.31788995778</v>
       </c>
       <c r="F5" t="n">
-        <v>1672.809254018961</v>
+        <v>1752.351095507879</v>
       </c>
       <c r="G5" t="n">
-        <v>1724.466602539519</v>
+        <v>1803.999537251373</v>
       </c>
       <c r="H5" t="n">
-        <v>1776.123951060078</v>
+        <v>1855.647978994868</v>
       </c>
       <c r="I5" t="n">
-        <v>1827.78129962885</v>
+        <v>1907.296420786567</v>
       </c>
       <c r="J5" t="n">
-        <v>1879.438648197622</v>
+        <v>1958.944862578267</v>
       </c>
       <c r="K5" t="n">
-        <v>1931.095996718181</v>
+        <v>2010.593304321761</v>
       </c>
       <c r="L5" t="n">
-        <v>1965.541509672288</v>
+        <v>2045.032878169168</v>
       </c>
       <c r="M5" t="n">
-        <v>1453.899571353115</v>
+        <v>1533.510192981046</v>
       </c>
       <c r="N5" t="n">
-        <v>1568.932448945718</v>
+        <v>1648.523236566966</v>
       </c>
       <c r="O5" t="n">
-        <v>1713.75207218372</v>
+        <v>1793.31788995778</v>
       </c>
       <c r="P5" t="n">
-        <v>1852.809254018961</v>
+        <v>1932.351095507879</v>
       </c>
       <c r="Q5" t="n">
-        <v>1904.466602539519</v>
+        <v>1983.999537251373</v>
       </c>
       <c r="R5" t="n">
-        <v>1956.123951060078</v>
+        <v>2035.647978994868</v>
       </c>
       <c r="S5" t="n">
-        <v>2007.78129962885</v>
+        <v>2087.296420786567</v>
       </c>
       <c r="T5" t="n">
-        <v>2059.438648197622</v>
+        <v>2138.944862578267</v>
       </c>
       <c r="U5" t="n">
-        <v>2111.095996718181</v>
+        <v>2190.593304321761</v>
       </c>
       <c r="V5" t="n">
-        <v>2145.541509672288</v>
+        <v>2225.032878169168</v>
       </c>
       <c r="W5" t="n">
-        <v>1425.843665236559</v>
+        <v>1505.428088613724</v>
       </c>
     </row>
     <row r="6">
@@ -850,70 +850,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.75467513281789</v>
+        <v>7.753916615590999</v>
       </c>
       <c r="C6" t="n">
-        <v>1304.186209026059</v>
+        <v>1390.409654614507</v>
       </c>
       <c r="D6" t="n">
-        <v>1421.530207697461</v>
+        <v>1507.755817375397</v>
       </c>
       <c r="E6" t="n">
-        <v>1569.259396364875</v>
+        <v>1655.48773050412</v>
       </c>
       <c r="F6" t="n">
-        <v>1711.110370642969</v>
+        <v>1797.341320835917</v>
       </c>
       <c r="G6" t="n">
-        <v>1763.805564947613</v>
+        <v>1850.037486959465</v>
       </c>
       <c r="H6" t="n">
-        <v>1816.500759252258</v>
+        <v>1902.733653083012</v>
       </c>
       <c r="I6" t="n">
-        <v>1869.195953606084</v>
+        <v>1955.429819255743</v>
       </c>
       <c r="J6" t="n">
-        <v>1921.891147959911</v>
+        <v>2008.125985428473</v>
       </c>
       <c r="K6" t="n">
-        <v>1974.586342264556</v>
+        <v>2060.822151552021</v>
       </c>
       <c r="L6" t="n">
-        <v>2009.723898682448</v>
+        <v>2095.96035598615</v>
       </c>
       <c r="M6" t="n">
-        <v>1484.186209026059</v>
+        <v>1570.409654614507</v>
       </c>
       <c r="N6" t="n">
-        <v>1601.530207697461</v>
+        <v>1687.755817375397</v>
       </c>
       <c r="O6" t="n">
-        <v>1749.259396364875</v>
+        <v>1835.48773050412</v>
       </c>
       <c r="P6" t="n">
-        <v>1891.110370642969</v>
+        <v>1977.341320835917</v>
       </c>
       <c r="Q6" t="n">
-        <v>1943.805564947613</v>
+        <v>2030.037486959465</v>
       </c>
       <c r="R6" t="n">
-        <v>1996.500759252258</v>
+        <v>2082.733653083012</v>
       </c>
       <c r="S6" t="n">
-        <v>2049.195953606084</v>
+        <v>2135.429819255743</v>
       </c>
       <c r="T6" t="n">
-        <v>2101.891147959911</v>
+        <v>2188.125985428474</v>
       </c>
       <c r="U6" t="n">
-        <v>2154.586342264556</v>
+        <v>2240.822151552021</v>
       </c>
       <c r="V6" t="n">
-        <v>2189.723898682448</v>
+        <v>2275.96035598615</v>
       </c>
       <c r="W6" t="n">
-        <v>1459.183005802121</v>
+        <v>1545.409309883055</v>
       </c>
     </row>
     <row r="7">
@@ -923,70 +923,70 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.154754223821947</v>
+        <v>7.146686767618963</v>
       </c>
       <c r="C7" t="n">
-        <v>1336.777674529381</v>
+        <v>1430.215473266323</v>
       </c>
       <c r="D7" t="n">
-        <v>1456.54538270505</v>
+        <v>1550.011255772673</v>
       </c>
       <c r="E7" t="n">
-        <v>1607.325879003742</v>
+        <v>1700.827096001527</v>
       </c>
       <c r="F7" t="n">
-        <v>1752.106747937208</v>
+        <v>1845.641902513433</v>
       </c>
       <c r="G7" t="n">
-        <v>1805.890347654241</v>
+        <v>1899.43810945646</v>
       </c>
       <c r="H7" t="n">
-        <v>1859.673947371275</v>
+        <v>1953.234316399487</v>
       </c>
       <c r="I7" t="n">
-        <v>1913.457547138506</v>
+        <v>2007.030523392724</v>
       </c>
       <c r="J7" t="n">
-        <v>1967.241146905738</v>
+        <v>2060.826730385961</v>
       </c>
       <c r="K7" t="n">
-        <v>2021.024746622772</v>
+        <v>2114.622937328988</v>
       </c>
       <c r="L7" t="n">
-        <v>2056.888060049211</v>
+        <v>2150.494657349625</v>
       </c>
       <c r="M7" t="n">
-        <v>1516.777674529381</v>
+        <v>1610.215473266323</v>
       </c>
       <c r="N7" t="n">
-        <v>1636.54538270505</v>
+        <v>1730.011255772673</v>
       </c>
       <c r="O7" t="n">
-        <v>1787.325879003742</v>
+        <v>1880.827096001527</v>
       </c>
       <c r="P7" t="n">
-        <v>1932.106747937208</v>
+        <v>2025.641902513433</v>
       </c>
       <c r="Q7" t="n">
-        <v>1985.890347654241</v>
+        <v>2079.43810945646</v>
       </c>
       <c r="R7" t="n">
-        <v>2039.673947371275</v>
+        <v>2133.234316399487</v>
       </c>
       <c r="S7" t="n">
-        <v>2093.457547138506</v>
+        <v>2187.030523392724</v>
       </c>
       <c r="T7" t="n">
-        <v>2147.241146905738</v>
+        <v>2240.826730385961</v>
       </c>
       <c r="U7" t="n">
-        <v>2201.024746622772</v>
+        <v>2294.622937328988</v>
       </c>
       <c r="V7" t="n">
-        <v>2236.888060049211</v>
+        <v>2330.494657349625</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.975889475357</v>
+        <v>1588.450770904013</v>
       </c>
     </row>
     <row r="8">
@@ -996,70 +996,70 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.641573103834406</v>
+        <v>6.628902294742623</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.329220075874</v>
+        <v>1471.17861539018</v>
       </c>
       <c r="D8" t="n">
-        <v>1492.568352991489</v>
+        <v>1593.470878813289</v>
       </c>
       <c r="E8" t="n">
-        <v>1646.460227595152</v>
+        <v>1747.429641599173</v>
       </c>
       <c r="F8" t="n">
-        <v>1794.228671617122</v>
+        <v>1895.262312290913</v>
       </c>
       <c r="G8" t="n">
-        <v>1849.12210403421</v>
+        <v>1950.179603809853</v>
       </c>
       <c r="H8" t="n">
-        <v>1904.015536451299</v>
+        <v>2005.096895328793</v>
       </c>
       <c r="I8" t="n">
-        <v>1958.908968919622</v>
+        <v>2060.014186898989</v>
       </c>
       <c r="J8" t="n">
-        <v>2013.802401387944</v>
+        <v>2114.931478469186</v>
       </c>
       <c r="K8" t="n">
-        <v>2068.695833805033</v>
+        <v>2169.848769988125</v>
       </c>
       <c r="L8" t="n">
-        <v>2105.299192118434</v>
+        <v>2206.468037732139</v>
       </c>
       <c r="M8" t="n">
-        <v>1550.329220075874</v>
+        <v>1651.17861539018</v>
       </c>
       <c r="N8" t="n">
-        <v>1672.568352991489</v>
+        <v>1773.470878813289</v>
       </c>
       <c r="O8" t="n">
-        <v>1826.460227595152</v>
+        <v>1927.429641599173</v>
       </c>
       <c r="P8" t="n">
-        <v>1974.228671617122</v>
+        <v>2075.262312290914</v>
       </c>
       <c r="Q8" t="n">
-        <v>2029.12210403421</v>
+        <v>2130.179603809853</v>
       </c>
       <c r="R8" t="n">
-        <v>2084.015536451299</v>
+        <v>2185.096895328793</v>
       </c>
       <c r="S8" t="n">
-        <v>2138.908968919622</v>
+        <v>2240.014186898989</v>
       </c>
       <c r="T8" t="n">
-        <v>2193.802401387944</v>
+        <v>2294.931478469186</v>
       </c>
       <c r="U8" t="n">
-        <v>2248.695833805033</v>
+        <v>2349.848769988125</v>
       </c>
       <c r="V8" t="n">
-        <v>2285.299192118434</v>
+        <v>2386.468037732139</v>
       </c>
       <c r="W8" t="n">
-        <v>1531.791879070986</v>
+        <v>1632.711453163636</v>
       </c>
     </row>
     <row r="9">
@@ -1069,70 +1069,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.213918592234864</v>
+        <v>6.199235541751619</v>
       </c>
       <c r="C9" t="n">
-        <v>1403.576765674371</v>
+        <v>1511.662704432214</v>
       </c>
       <c r="D9" t="n">
-        <v>1528.268592715315</v>
+        <v>1636.427461226997</v>
       </c>
       <c r="E9" t="n">
-        <v>1685.248264882438</v>
+        <v>1793.49894766231</v>
       </c>
       <c r="F9" t="n">
-        <v>1835.981641540276</v>
+        <v>1944.320485255119</v>
       </c>
       <c r="G9" t="n">
-        <v>1891.976495376163</v>
+        <v>2000.348089360237</v>
       </c>
       <c r="H9" t="n">
-        <v>1947.971349212049</v>
+        <v>2056.375693465355</v>
       </c>
       <c r="I9" t="n">
-        <v>2003.966203100198</v>
+        <v>2112.403297622765</v>
       </c>
       <c r="J9" t="n">
-        <v>2059.961056988346</v>
+        <v>2168.430901780176</v>
       </c>
       <c r="K9" t="n">
-        <v>2115.955910824233</v>
+        <v>2224.458505885294</v>
       </c>
       <c r="L9" t="n">
-        <v>2153.293705318269</v>
+        <v>2261.818138507986</v>
       </c>
       <c r="M9" t="n">
-        <v>1583.576765674371</v>
+        <v>1691.662704432214</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.268592715315</v>
+        <v>1816.427461226997</v>
       </c>
       <c r="O9" t="n">
-        <v>1865.248264882438</v>
+        <v>1973.49894766231</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.981641540276</v>
+        <v>2124.320485255119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2071.976495376162</v>
+        <v>2180.348089360237</v>
       </c>
       <c r="R9" t="n">
-        <v>2127.971349212049</v>
+        <v>2236.375693465355</v>
       </c>
       <c r="S9" t="n">
-        <v>2183.966203100198</v>
+        <v>2292.403297622765</v>
       </c>
       <c r="T9" t="n">
-        <v>2239.961056988346</v>
+        <v>2348.430901780176</v>
       </c>
       <c r="U9" t="n">
-        <v>2295.955910824233</v>
+        <v>2404.458505885294</v>
       </c>
       <c r="V9" t="n">
-        <v>2333.293705318269</v>
+        <v>2441.818138507986</v>
       </c>
       <c r="W9" t="n">
-        <v>1568.279127911248</v>
+        <v>1676.461397784127</v>
       </c>
     </row>
     <row r="10">
@@ -1142,70 +1142,70 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.864031156059455</v>
+        <v>5.849447121190248</v>
       </c>
       <c r="C10" t="n">
-        <v>1435.4083357985</v>
+        <v>1550.242256438747</v>
       </c>
       <c r="D10" t="n">
-        <v>1562.47352053128</v>
+        <v>1677.391585248017</v>
       </c>
       <c r="E10" t="n">
-        <v>1722.441110361021</v>
+        <v>1837.465107518205</v>
       </c>
       <c r="F10" t="n">
-        <v>1876.043514022449</v>
+        <v>1991.169228518099</v>
       </c>
       <c r="G10" t="n">
-        <v>1933.104161986214</v>
+        <v>2048.267662721555</v>
       </c>
       <c r="H10" t="n">
-        <v>1990.164809949979</v>
+        <v>2105.366096925012</v>
       </c>
       <c r="I10" t="n">
-        <v>2047.225457967</v>
+        <v>2162.464531181761</v>
       </c>
       <c r="J10" t="n">
-        <v>2104.286105984022</v>
+        <v>2219.56296543851</v>
       </c>
       <c r="K10" t="n">
-        <v>2161.346753947787</v>
+        <v>2276.661399641966</v>
       </c>
       <c r="L10" t="n">
-        <v>2199.395228073853</v>
+        <v>2314.735069920102</v>
       </c>
       <c r="M10" t="n">
-        <v>1615.4083357985</v>
+        <v>1730.242256438747</v>
       </c>
       <c r="N10" t="n">
-        <v>1742.47352053128</v>
+        <v>1857.391585248017</v>
       </c>
       <c r="O10" t="n">
-        <v>1902.441110361021</v>
+        <v>2017.465107518205</v>
       </c>
       <c r="P10" t="n">
-        <v>2056.043514022449</v>
+        <v>2171.169228518099</v>
       </c>
       <c r="Q10" t="n">
-        <v>2113.104161986214</v>
+        <v>2228.267662721555</v>
       </c>
       <c r="R10" t="n">
-        <v>2170.164809949979</v>
+        <v>2285.366096925012</v>
       </c>
       <c r="S10" t="n">
-        <v>2227.225457967</v>
+        <v>2342.464531181761</v>
       </c>
       <c r="T10" t="n">
-        <v>2284.286105984022</v>
+        <v>2399.56296543851</v>
       </c>
       <c r="U10" t="n">
-        <v>2341.346753947787</v>
+        <v>2456.661399641966</v>
       </c>
       <c r="V10" t="n">
-        <v>2379.395228073853</v>
+        <v>2494.735069920102</v>
       </c>
       <c r="W10" t="n">
-        <v>1603.245607736798</v>
+        <v>1718.190672214576</v>
       </c>
     </row>
     <row r="11">
@@ -1215,70 +1215,70 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.581834784397747</v>
+        <v>5.568893389563018</v>
       </c>
       <c r="C11" t="n">
-        <v>1464.925399339297</v>
+        <v>1585.784905181928</v>
       </c>
       <c r="D11" t="n">
-        <v>1594.23514159013</v>
+        <v>1715.179636278519</v>
       </c>
       <c r="E11" t="n">
-        <v>1757.028497243549</v>
+        <v>1878.079987887178</v>
       </c>
       <c r="F11" t="n">
-        <v>1913.3442281681</v>
+        <v>2034.498457347232</v>
       </c>
       <c r="G11" t="n">
-        <v>1971.412830487272</v>
+        <v>2092.60522526321</v>
       </c>
       <c r="H11" t="n">
-        <v>2029.481432806444</v>
+        <v>2150.711993179189</v>
       </c>
       <c r="I11" t="n">
-        <v>2087.550035179814</v>
+        <v>2208.8187611494</v>
       </c>
       <c r="J11" t="n">
-        <v>2145.618637553183</v>
+        <v>2266.925529119611</v>
       </c>
       <c r="K11" t="n">
-        <v>2203.687239872355</v>
+        <v>2325.03229703559</v>
       </c>
       <c r="L11" t="n">
-        <v>2242.407825630177</v>
+        <v>2363.77833190369</v>
       </c>
       <c r="M11" t="n">
-        <v>1644.925399339297</v>
+        <v>1765.784905181928</v>
       </c>
       <c r="N11" t="n">
-        <v>1774.23514159013</v>
+        <v>1895.179636278519</v>
       </c>
       <c r="O11" t="n">
-        <v>1937.028497243549</v>
+        <v>2058.079987887178</v>
       </c>
       <c r="P11" t="n">
-        <v>2093.3442281681</v>
+        <v>2214.498457347232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2151.412830487272</v>
+        <v>2272.60522526321</v>
       </c>
       <c r="R11" t="n">
-        <v>2209.481432806444</v>
+        <v>2330.711993179189</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.550035179814</v>
+        <v>2388.8187611494</v>
       </c>
       <c r="T11" t="n">
-        <v>2325.618637553183</v>
+        <v>2446.925529119611</v>
       </c>
       <c r="U11" t="n">
-        <v>2383.687239872355</v>
+        <v>2505.03229703559</v>
       </c>
       <c r="V11" t="n">
-        <v>2422.407825630177</v>
+        <v>2543.77833190369</v>
       </c>
       <c r="W11" t="n">
-        <v>1635.727452002786</v>
+        <v>1756.699217517862</v>
       </c>
     </row>
     <row r="12">
@@ -1288,70 +1288,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.35704925781691</v>
+        <v>5.346762012691582</v>
       </c>
       <c r="C12" t="n">
-        <v>1491.487352321213</v>
+        <v>1617.507364522286</v>
       </c>
       <c r="D12" t="n">
-        <v>1622.87827916361</v>
+        <v>1748.973677014438</v>
       </c>
       <c r="E12" t="n">
-        <v>1788.291723740705</v>
+        <v>1914.482027688153</v>
       </c>
       <c r="F12" t="n">
-        <v>1947.123289009649</v>
+        <v>2073.404722695179</v>
       </c>
       <c r="G12" t="n">
-        <v>2006.126480465701</v>
+        <v>2132.441767279696</v>
       </c>
       <c r="H12" t="n">
-        <v>2065.129671921753</v>
+        <v>2191.478811864213</v>
       </c>
       <c r="I12" t="n">
-        <v>2124.132863432874</v>
+        <v>2250.515856503831</v>
       </c>
       <c r="J12" t="n">
-        <v>2183.136054943995</v>
+        <v>2309.55290114345</v>
       </c>
       <c r="K12" t="n">
-        <v>2242.139246400046</v>
+        <v>2368.589945727967</v>
       </c>
       <c r="L12" t="n">
-        <v>2281.483023303816</v>
+        <v>2407.95629615532</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.487352321213</v>
+        <v>1797.507364522286</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.87827916361</v>
+        <v>1928.973677014438</v>
       </c>
       <c r="O12" t="n">
-        <v>1968.291723740705</v>
+        <v>2094.482027688153</v>
       </c>
       <c r="P12" t="n">
-        <v>2127.123289009649</v>
+        <v>2253.404722695179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2186.126480465701</v>
+        <v>2312.441767279696</v>
       </c>
       <c r="R12" t="n">
-        <v>2245.129671921753</v>
+        <v>2371.478811864213</v>
       </c>
       <c r="S12" t="n">
-        <v>2304.132863432874</v>
+        <v>2430.515856503831</v>
       </c>
       <c r="T12" t="n">
-        <v>2363.136054943995</v>
+        <v>2489.55290114345</v>
       </c>
       <c r="U12" t="n">
-        <v>2422.139246400046</v>
+        <v>2548.589945727967</v>
       </c>
       <c r="V12" t="n">
-        <v>2461.483023303816</v>
+        <v>2587.95629615532</v>
       </c>
       <c r="W12" t="n">
-        <v>1665.038390436403</v>
+        <v>1791.15797768492</v>
       </c>
     </row>
     <row r="13">
@@ -1361,70 +1361,70 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.180090012911951</v>
+        <v>5.173012245571537</v>
       </c>
       <c r="C13" t="n">
-        <v>1514.733898685686</v>
+        <v>1644.998375594449</v>
       </c>
       <c r="D13" t="n">
-        <v>1648.025199750618</v>
+        <v>1778.34648844662</v>
       </c>
       <c r="E13" t="n">
-        <v>1815.831103637419</v>
+        <v>1946.223915030198</v>
       </c>
       <c r="F13" t="n">
-        <v>1976.959931126942</v>
+        <v>2107.421419294517</v>
       </c>
       <c r="G13" t="n">
-        <v>2036.816515939636</v>
+        <v>2167.30351634645</v>
       </c>
       <c r="H13" t="n">
-        <v>2096.673100752329</v>
+        <v>2227.185613398383</v>
       </c>
       <c r="I13" t="n">
-        <v>2156.529685620889</v>
+        <v>2287.067710506205</v>
       </c>
       <c r="J13" t="n">
-        <v>2216.38627048945</v>
+        <v>2346.949807614028</v>
       </c>
       <c r="K13" t="n">
-        <v>2276.242855302143</v>
+        <v>2406.831904665961</v>
       </c>
       <c r="L13" t="n">
-        <v>2316.155681387937</v>
+        <v>2446.761742506952</v>
       </c>
       <c r="M13" t="n">
-        <v>1694.733898685686</v>
+        <v>1824.998375594449</v>
       </c>
       <c r="N13" t="n">
-        <v>1828.025199750618</v>
+        <v>1958.34648844662</v>
       </c>
       <c r="O13" t="n">
-        <v>1995.831103637419</v>
+        <v>2126.223915030198</v>
       </c>
       <c r="P13" t="n">
-        <v>2156.959931126942</v>
+        <v>2287.421419294517</v>
       </c>
       <c r="Q13" t="n">
-        <v>2216.816515939636</v>
+        <v>2347.30351634645</v>
       </c>
       <c r="R13" t="n">
-        <v>2276.673100752329</v>
+        <v>2407.185613398383</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.529685620889</v>
+        <v>2467.067710506205</v>
       </c>
       <c r="T13" t="n">
-        <v>2396.38627048945</v>
+        <v>2526.949807614028</v>
       </c>
       <c r="U13" t="n">
-        <v>2456.242855302143</v>
+        <v>2586.831904665961</v>
       </c>
       <c r="V13" t="n">
-        <v>2496.155681387937</v>
+        <v>2626.761742506952</v>
       </c>
       <c r="W13" t="n">
-        <v>1690.795094290852</v>
+        <v>1821.134612489675</v>
       </c>
     </row>
     <row r="14">
@@ -1434,70 +1434,70 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.042337968115827</v>
+        <v>5.038649358876158</v>
       </c>
       <c r="C14" t="n">
-        <v>1534.584297219097</v>
+        <v>1668.20850132119</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.595736620866</v>
+        <v>1803.251836752005</v>
       </c>
       <c r="E14" t="n">
-        <v>1839.56719344411</v>
+        <v>1973.263448798746</v>
       </c>
       <c r="F14" t="n">
-        <v>2002.775405493017</v>
+        <v>2136.510218275786</v>
       </c>
       <c r="G14" t="n">
-        <v>2063.404445863019</v>
+        <v>2197.153582066391</v>
       </c>
       <c r="H14" t="n">
-        <v>2124.033486233022</v>
+        <v>2257.796945856996</v>
       </c>
       <c r="I14" t="n">
-        <v>2184.662526659611</v>
+        <v>2318.440309704201</v>
       </c>
       <c r="J14" t="n">
-        <v>2245.291567086201</v>
+        <v>2379.083673551407</v>
       </c>
       <c r="K14" t="n">
-        <v>2305.920607456203</v>
+        <v>2439.727037342012</v>
       </c>
       <c r="L14" t="n">
-        <v>2346.348512783728</v>
+        <v>2480.164493635352</v>
       </c>
       <c r="M14" t="n">
-        <v>1714.584297219097</v>
+        <v>1848.20850132119</v>
       </c>
       <c r="N14" t="n">
-        <v>1849.595736620866</v>
+        <v>1983.251836752005</v>
       </c>
       <c r="O14" t="n">
-        <v>2019.56719344411</v>
+        <v>2153.263448798746</v>
       </c>
       <c r="P14" t="n">
-        <v>2182.775405493016</v>
+        <v>2316.510218275786</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.404445863019</v>
+        <v>2377.153582066391</v>
       </c>
       <c r="R14" t="n">
-        <v>2304.033486233022</v>
+        <v>2437.796945856996</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.662526659611</v>
+        <v>2498.440309704201</v>
       </c>
       <c r="T14" t="n">
-        <v>2425.291567086201</v>
+        <v>2559.083673551407</v>
       </c>
       <c r="U14" t="n">
-        <v>2485.920607456203</v>
+        <v>2619.727037342012</v>
       </c>
       <c r="V14" t="n">
-        <v>2526.348512783728</v>
+        <v>2660.164493635352</v>
       </c>
       <c r="W14" t="n">
-        <v>1712.917581173392</v>
+        <v>1846.583915954412</v>
       </c>
     </row>
     <row r="15">
@@ -1507,70 +1507,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.936107640587633</v>
+        <v>4.935686319872472</v>
       </c>
       <c r="C15" t="n">
-        <v>1551.217499286735</v>
+        <v>1687.413725091784</v>
       </c>
       <c r="D15" t="n">
-        <v>1687.787384059334</v>
+        <v>1823.987479141763</v>
       </c>
       <c r="E15" t="n">
-        <v>1859.720831890401</v>
+        <v>1995.925798165345</v>
       </c>
       <c r="F15" t="n">
-        <v>2024.812966395627</v>
+        <v>2161.022610036028</v>
       </c>
       <c r="G15" t="n">
-        <v>2086.14185151746</v>
+        <v>2222.353232718586</v>
       </c>
       <c r="H15" t="n">
-        <v>2147.470736639294</v>
+        <v>2283.683855401145</v>
       </c>
       <c r="I15" t="n">
-        <v>2208.799621818368</v>
+        <v>2345.014478140944</v>
       </c>
       <c r="J15" t="n">
-        <v>2270.128506997441</v>
+        <v>2406.345100880745</v>
       </c>
       <c r="K15" t="n">
-        <v>2331.457392119275</v>
+        <v>2467.675723563303</v>
       </c>
       <c r="L15" t="n">
-        <v>2372.351959251082</v>
+        <v>2508.571449313818</v>
       </c>
       <c r="M15" t="n">
-        <v>1731.217499286735</v>
+        <v>1867.413725091784</v>
       </c>
       <c r="N15" t="n">
-        <v>1867.787384059334</v>
+        <v>2003.987479141763</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.720831890401</v>
+        <v>2175.925798165345</v>
       </c>
       <c r="P15" t="n">
-        <v>2204.812966395627</v>
+        <v>2341.022610036028</v>
       </c>
       <c r="Q15" t="n">
-        <v>2266.14185151746</v>
+        <v>2402.353232718586</v>
       </c>
       <c r="R15" t="n">
-        <v>2327.470736639294</v>
+        <v>2463.683855401145</v>
       </c>
       <c r="S15" t="n">
-        <v>2388.799621818368</v>
+        <v>2525.014478140944</v>
       </c>
       <c r="T15" t="n">
-        <v>2450.128506997441</v>
+        <v>2586.345100880745</v>
       </c>
       <c r="U15" t="n">
-        <v>2511.457392119275</v>
+        <v>2647.675723563303</v>
       </c>
       <c r="V15" t="n">
-        <v>2552.351959251082</v>
+        <v>2688.571449313818</v>
       </c>
       <c r="W15" t="n">
-        <v>1731.609295335079</v>
+        <v>1867.810631973289</v>
       </c>
     </row>
     <row r="16">
@@ -1580,70 +1580,70 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.854478716833431</v>
+        <v>4.856969059701494</v>
       </c>
       <c r="C16" t="n">
-        <v>1565.042227683049</v>
+        <v>1703.165992373165</v>
       </c>
       <c r="D16" t="n">
-        <v>1703.04532425862</v>
+        <v>1841.14508045231</v>
       </c>
       <c r="E16" t="n">
-        <v>1876.783101405534</v>
+        <v>2014.852632315116</v>
       </c>
       <c r="F16" t="n">
-        <v>2043.607770108506</v>
+        <v>2181.648278412351</v>
       </c>
       <c r="G16" t="n">
-        <v>2105.58026185098</v>
+        <v>2243.609988756557</v>
       </c>
       <c r="H16" t="n">
-        <v>2167.552753593454</v>
+        <v>2305.571699100762</v>
       </c>
       <c r="I16" t="n">
-        <v>2229.525245393768</v>
+        <v>2367.533409502797</v>
       </c>
       <c r="J16" t="n">
-        <v>2291.497737194084</v>
+        <v>2429.495119904834</v>
       </c>
       <c r="K16" t="n">
-        <v>2353.470228936557</v>
+        <v>2491.456830249038</v>
       </c>
       <c r="L16" t="n">
-        <v>2394.793957858961</v>
+        <v>2532.773370053062</v>
       </c>
       <c r="M16" t="n">
-        <v>1745.042227683049</v>
+        <v>1883.165992373165</v>
       </c>
       <c r="N16" t="n">
-        <v>1883.04532425862</v>
+        <v>2021.14508045231</v>
       </c>
       <c r="O16" t="n">
-        <v>2056.783101405534</v>
+        <v>2194.852632315116</v>
       </c>
       <c r="P16" t="n">
-        <v>2223.607770108506</v>
+        <v>2361.648278412351</v>
       </c>
       <c r="Q16" t="n">
-        <v>2285.58026185098</v>
+        <v>2423.609988756557</v>
       </c>
       <c r="R16" t="n">
-        <v>2347.552753593454</v>
+        <v>2485.571699100762</v>
       </c>
       <c r="S16" t="n">
-        <v>2409.525245393768</v>
+        <v>2547.533409502797</v>
       </c>
       <c r="T16" t="n">
-        <v>2471.497737194084</v>
+        <v>2609.495119904834</v>
       </c>
       <c r="U16" t="n">
-        <v>2533.470228936557</v>
+        <v>2671.456830249038</v>
       </c>
       <c r="V16" t="n">
-        <v>2574.793957858961</v>
+        <v>2712.773370053062</v>
       </c>
       <c r="W16" t="n">
-        <v>1747.327117891107</v>
+        <v>1885.419170349804</v>
       </c>
     </row>
     <row r="17">
@@ -1653,70 +1653,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.791051480420596</v>
+        <v>4.795929798551478</v>
       </c>
       <c r="C17" t="n">
-        <v>1576.671966403581</v>
+        <v>1716.250090889795</v>
       </c>
       <c r="D17" t="n">
-        <v>1716.039111415184</v>
+        <v>1855.568288326612</v>
       </c>
       <c r="E17" t="n">
-        <v>1891.494145269212</v>
+        <v>2030.961700064534</v>
       </c>
       <c r="F17" t="n">
-        <v>2059.967740221539</v>
+        <v>2199.376124873943</v>
       </c>
       <c r="G17" t="n">
-        <v>2122.552779671536</v>
+        <v>2261.93918363474</v>
       </c>
       <c r="H17" t="n">
-        <v>2185.137819121531</v>
+        <v>2324.502242395538</v>
       </c>
       <c r="I17" t="n">
-        <v>2247.72285862994</v>
+        <v>2387.065301214727</v>
       </c>
       <c r="J17" t="n">
-        <v>2310.307898138349</v>
+        <v>2449.628360033917</v>
       </c>
       <c r="K17" t="n">
-        <v>2372.892937588344</v>
+        <v>2512.191418794715</v>
       </c>
       <c r="L17" t="n">
-        <v>2414.625117981812</v>
+        <v>2553.908942297416</v>
       </c>
       <c r="M17" t="n">
-        <v>1756.671966403581</v>
+        <v>1896.250090889795</v>
       </c>
       <c r="N17" t="n">
-        <v>1896.039111415184</v>
+        <v>2035.568288326612</v>
       </c>
       <c r="O17" t="n">
-        <v>2071.494145269212</v>
+        <v>2210.961700064534</v>
       </c>
       <c r="P17" t="n">
-        <v>2239.967740221539</v>
+        <v>2379.376124873943</v>
       </c>
       <c r="Q17" t="n">
-        <v>2302.552779671536</v>
+        <v>2441.93918363474</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.137819121531</v>
+        <v>2504.502242395538</v>
       </c>
       <c r="S17" t="n">
-        <v>2427.72285862994</v>
+        <v>2567.065301214727</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.307898138349</v>
+        <v>2629.628360033917</v>
       </c>
       <c r="U17" t="n">
-        <v>2552.892937588344</v>
+        <v>2692.191418794715</v>
       </c>
       <c r="V17" t="n">
-        <v>2594.625117981812</v>
+        <v>2733.908942297416</v>
       </c>
       <c r="W17" t="n">
-        <v>1760.758594583978</v>
+        <v>1900.272065424605</v>
       </c>
     </row>
     <row r="18">
@@ -1726,70 +1726,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.739588305217119</v>
+        <v>4.74623124538483</v>
       </c>
       <c r="C18" t="n">
-        <v>1586.932975210981</v>
+        <v>1727.6799285639</v>
       </c>
       <c r="D18" t="n">
-        <v>1727.678204533693</v>
+        <v>1868.356152897141</v>
       </c>
       <c r="E18" t="n">
-        <v>1904.868165435548</v>
+        <v>2045.459240578177</v>
       </c>
       <c r="F18" t="n">
-        <v>2075.007653866718</v>
+        <v>2215.515312515132</v>
       </c>
       <c r="G18" t="n">
-        <v>2138.211544057819</v>
+        <v>2278.688214915044</v>
       </c>
       <c r="H18" t="n">
-        <v>2201.41543424892</v>
+        <v>2341.861117314956</v>
       </c>
       <c r="I18" t="n">
-        <v>2264.619324499012</v>
+        <v>2405.034019773829</v>
       </c>
       <c r="J18" t="n">
-        <v>2327.823214749103</v>
+        <v>2468.206922232703</v>
       </c>
       <c r="K18" t="n">
-        <v>2391.027104940204</v>
+        <v>2531.379824632615</v>
       </c>
       <c r="L18" t="n">
-        <v>2433.171939715475</v>
+        <v>2573.503996512995</v>
       </c>
       <c r="M18" t="n">
-        <v>1766.932975210981</v>
+        <v>1907.6799285639</v>
       </c>
       <c r="N18" t="n">
-        <v>1907.678204533693</v>
+        <v>2048.356152897141</v>
       </c>
       <c r="O18" t="n">
-        <v>2084.868165435548</v>
+        <v>2225.459240578177</v>
       </c>
       <c r="P18" t="n">
-        <v>2255.007653866718</v>
+        <v>2395.515312515132</v>
       </c>
       <c r="Q18" t="n">
-        <v>2318.211544057819</v>
+        <v>2458.688214915044</v>
       </c>
       <c r="R18" t="n">
-        <v>2381.41543424892</v>
+        <v>2521.861117314956</v>
       </c>
       <c r="S18" t="n">
-        <v>2444.619324499012</v>
+        <v>2585.034019773829</v>
       </c>
       <c r="T18" t="n">
-        <v>2507.823214749103</v>
+        <v>2648.206922232703</v>
       </c>
       <c r="U18" t="n">
-        <v>2571.027104940204</v>
+        <v>2711.379824632615</v>
       </c>
       <c r="V18" t="n">
-        <v>2613.171939715475</v>
+        <v>2753.503996512995</v>
       </c>
       <c r="W18" t="n">
-        <v>1772.839881005295</v>
+        <v>1913.495687367737</v>
       </c>
     </row>
     <row r="19">
@@ -1799,70 +1799,70 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.693274917048557</v>
+        <v>4.701034105618809</v>
       </c>
       <c r="C19" t="n">
-        <v>1596.985107671279</v>
+        <v>1738.823576418847</v>
       </c>
       <c r="D19" t="n">
-        <v>1739.259388015096</v>
+        <v>1881.014505450041</v>
       </c>
       <c r="E19" t="n">
-        <v>1918.374334168321</v>
+        <v>2060.024517205873</v>
       </c>
       <c r="F19" t="n">
-        <v>2090.362211775935</v>
+        <v>2231.911635805468</v>
       </c>
       <c r="G19" t="n">
-        <v>2154.252746717267</v>
+        <v>2295.764740510368</v>
       </c>
       <c r="H19" t="n">
-        <v>2218.1432816586</v>
+        <v>2359.617845215268</v>
       </c>
       <c r="I19" t="n">
-        <v>2282.033816659564</v>
+        <v>2423.470949979764</v>
       </c>
       <c r="J19" t="n">
-        <v>2345.924351660527</v>
+        <v>2487.32405474426</v>
       </c>
       <c r="K19" t="n">
-        <v>2409.814886601861</v>
+        <v>2551.17715944916</v>
       </c>
       <c r="L19" t="n">
-        <v>2452.417581319935</v>
+        <v>2593.754895400847</v>
       </c>
       <c r="M19" t="n">
-        <v>1776.985107671279</v>
+        <v>1918.823576418847</v>
       </c>
       <c r="N19" t="n">
-        <v>1919.259388015096</v>
+        <v>2061.014505450041</v>
       </c>
       <c r="O19" t="n">
-        <v>2098.374334168321</v>
+        <v>2240.024517205873</v>
       </c>
       <c r="P19" t="n">
-        <v>2270.362211775935</v>
+        <v>2411.911635805468</v>
       </c>
       <c r="Q19" t="n">
-        <v>2334.252746717267</v>
+        <v>2475.764740510368</v>
       </c>
       <c r="R19" t="n">
-        <v>2398.1432816586</v>
+        <v>2539.617845215268</v>
       </c>
       <c r="S19" t="n">
-        <v>2462.033816659564</v>
+        <v>2603.470949979764</v>
       </c>
       <c r="T19" t="n">
-        <v>2525.924351660527</v>
+        <v>2667.32405474426</v>
       </c>
       <c r="U19" t="n">
-        <v>2589.814886601861</v>
+        <v>2731.17715944916</v>
       </c>
       <c r="V19" t="n">
-        <v>2632.417581319935</v>
+        <v>2773.754895400847</v>
       </c>
       <c r="W19" t="n">
-        <v>1784.911699287296</v>
+        <v>1926.640071339592</v>
       </c>
     </row>
     <row r="20">
@@ -1872,70 +1872,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.642065839413932</v>
+        <v>4.650348079280689</v>
       </c>
       <c r="C20" t="n">
-        <v>1608.960557906768</v>
+        <v>1752.107420829887</v>
       </c>
       <c r="D20" t="n">
-        <v>1753.221247761973</v>
+        <v>1896.275551639913</v>
       </c>
       <c r="E20" t="n">
-        <v>1934.836966590419</v>
+        <v>2077.77474407755</v>
       </c>
       <c r="F20" t="n">
-        <v>2109.226109944009</v>
+        <v>2252.051997680616</v>
       </c>
       <c r="G20" t="n">
-        <v>2174.008673760754</v>
+        <v>2316.792996381755</v>
       </c>
       <c r="H20" t="n">
-        <v>2238.791237577499</v>
+        <v>2381.533995082895</v>
       </c>
       <c r="I20" t="n">
-        <v>2303.573801454706</v>
+        <v>2446.274993844459</v>
       </c>
       <c r="J20" t="n">
-        <v>2368.356365331915</v>
+        <v>2511.015992606023</v>
       </c>
       <c r="K20" t="n">
-        <v>2433.138929148659</v>
+        <v>2575.756991307162</v>
       </c>
       <c r="L20" t="n">
-        <v>2476.336435506576</v>
+        <v>2618.926781729805</v>
       </c>
       <c r="M20" t="n">
-        <v>1788.960557906768</v>
+        <v>1932.107420829887</v>
       </c>
       <c r="N20" t="n">
-        <v>1933.221247761973</v>
+        <v>2076.275551639913</v>
       </c>
       <c r="O20" t="n">
-        <v>2114.836966590418</v>
+        <v>2257.77474407755</v>
       </c>
       <c r="P20" t="n">
-        <v>2289.226109944009</v>
+        <v>2432.051997680616</v>
       </c>
       <c r="Q20" t="n">
-        <v>2354.008673760754</v>
+        <v>2496.792996381755</v>
       </c>
       <c r="R20" t="n">
-        <v>2418.791237577499</v>
+        <v>2561.533995082895</v>
       </c>
       <c r="S20" t="n">
-        <v>2483.573801454706</v>
+        <v>2626.274993844459</v>
       </c>
       <c r="T20" t="n">
-        <v>2548.356365331915</v>
+        <v>2691.015992606023</v>
       </c>
       <c r="U20" t="n">
-        <v>2613.138929148659</v>
+        <v>2755.756991307162</v>
       </c>
       <c r="V20" t="n">
-        <v>2656.336435506576</v>
+        <v>2798.926781729805</v>
       </c>
       <c r="W20" t="n">
-        <v>1799.510948906108</v>
+        <v>1942.535552866878</v>
       </c>
     </row>
     <row r="21">
@@ -1945,70 +1945,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.447320093769219</v>
+        <v>4.455449176159257</v>
       </c>
       <c r="C21" t="n">
-        <v>1659.209769322634</v>
+        <v>1808.010433161489</v>
       </c>
       <c r="D21" t="n">
-        <v>1812.160525734252</v>
+        <v>1960.854576795867</v>
       </c>
       <c r="E21" t="n">
-        <v>2004.716526949355</v>
+        <v>2153.276358798555</v>
       </c>
       <c r="F21" t="n">
-        <v>2189.61063367155</v>
+        <v>2338.041586954371</v>
       </c>
       <c r="G21" t="n">
-        <v>2258.295610486788</v>
+        <v>2406.678687601457</v>
       </c>
       <c r="H21" t="n">
-        <v>2326.980587302026</v>
+        <v>2475.315788248542</v>
       </c>
       <c r="I21" t="n">
-        <v>2395.66556418137</v>
+        <v>2543.952888959689</v>
       </c>
       <c r="J21" t="n">
-        <v>2464.350541060714</v>
+        <v>2612.589989670836</v>
       </c>
       <c r="K21" t="n">
-        <v>2533.035517875951</v>
+        <v>2681.227090317922</v>
       </c>
       <c r="L21" t="n">
-        <v>2578.835182907158</v>
+        <v>2726.994831156007</v>
       </c>
       <c r="M21" t="n">
-        <v>1839.209769322634</v>
+        <v>1988.010433161489</v>
       </c>
       <c r="N21" t="n">
-        <v>1992.160525734252</v>
+        <v>2140.854576795867</v>
       </c>
       <c r="O21" t="n">
-        <v>2184.716526949355</v>
+        <v>2333.276358798555</v>
       </c>
       <c r="P21" t="n">
-        <v>2369.61063367155</v>
+        <v>2518.041586954371</v>
       </c>
       <c r="Q21" t="n">
-        <v>2438.295610486788</v>
+        <v>2586.678687601457</v>
       </c>
       <c r="R21" t="n">
-        <v>2506.980587302026</v>
+        <v>2655.315788248542</v>
       </c>
       <c r="S21" t="n">
-        <v>2575.66556418137</v>
+        <v>2723.952888959689</v>
       </c>
       <c r="T21" t="n">
-        <v>2644.350541060714</v>
+        <v>2792.589989670836</v>
       </c>
       <c r="U21" t="n">
-        <v>2713.035517875951</v>
+        <v>2861.227090317922</v>
       </c>
       <c r="V21" t="n">
-        <v>2758.835182907158</v>
+        <v>2906.994831156007</v>
       </c>
       <c r="W21" t="n">
-        <v>1861.238655134364</v>
+        <v>2009.89849678244</v>
       </c>
     </row>
   </sheetData>
